--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_10_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_10_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467203.9332989053</v>
+        <v>465359.2557487151</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2923830.063341361</v>
+        <v>2923830.063341362</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>25.62029119463083</v>
@@ -674,7 +674,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6263639150735093</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="W3" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21.81976115797297</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,25 +823,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="H5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.6263639150735093</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>12.57565326968603</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>21.81976115797298</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T6" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="U6" t="n">
-        <v>21.81976115797298</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="T7" t="n">
+      <c r="W7" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="U7" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.13217237922859</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16.93162886246721</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,17 +1257,17 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>343.6399627954916</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>333.050112645167</v>
       </c>
       <c r="E11" t="n">
         <v>360.2974410967458</v>
       </c>
       <c r="F11" t="n">
-        <v>385.2431167661955</v>
+        <v>385.2431167661954</v>
       </c>
       <c r="G11" t="n">
-        <v>159.4797268760319</v>
+        <v>304.3780466677405</v>
       </c>
       <c r="H11" t="n">
-        <v>291.2196756532852</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>88.62548044195378</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>190.083580224969</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>229.5047634002607</v>
       </c>
       <c r="V11" t="n">
-        <v>306.119329494619</v>
+        <v>306.1193294946189</v>
       </c>
       <c r="W11" t="n">
-        <v>327.6080397418971</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>348.0981717029531</v>
+        <v>348.098171702953</v>
       </c>
       <c r="Y11" t="n">
         <v>364.6050096805376</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.1990512064214</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>145.6138921231118</v>
       </c>
       <c r="D13" t="n">
-        <v>126.9825440426964</v>
+        <v>70.12384989424575</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.1920011906301</v>
       </c>
       <c r="H13" t="n">
-        <v>130.2270061675436</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>182.0626117736071</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>230.5047143483121</v>
+        <v>230.504714348312</v>
       </c>
       <c r="W13" t="n">
-        <v>264.8900693610751</v>
+        <v>264.890069361075</v>
       </c>
       <c r="X13" t="n">
-        <v>127.5837535649332</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9517243765789</v>
+        <v>196.9517243765788</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>343.6399627954916</v>
       </c>
       <c r="D14" t="n">
-        <v>333.050112645167</v>
+        <v>128.7068660839048</v>
       </c>
       <c r="E14" t="n">
-        <v>360.2974410967458</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>385.2431167661955</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>391.0703018888718</v>
       </c>
       <c r="H14" t="n">
         <v>291.2196756532852</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>128.1508828068248</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>190.083580224969</v>
       </c>
       <c r="U14" t="n">
-        <v>25.88677116593671</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>306.119329494619</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>327.6080397418971</v>
       </c>
       <c r="X14" t="n">
         <v>348.0981717029531</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>158.1990512064214</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6138921231119</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>126.9825440426964</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>124.8010336710532</v>
       </c>
       <c r="F16" t="n">
-        <v>1.394695227177494</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>103.2306505363942</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>201.3304502674295</v>
+        <v>201.3304502674296</v>
       </c>
       <c r="U16" t="n">
-        <v>264.6224976977579</v>
+        <v>93.3386946186744</v>
       </c>
       <c r="V16" t="n">
         <v>230.5047143483121</v>
       </c>
       <c r="W16" t="n">
-        <v>264.8900693610751</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>196.9517243765789</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>299.6144904302918</v>
       </c>
       <c r="C17" t="n">
-        <v>282.1535405378188</v>
+        <v>282.1535405378187</v>
       </c>
       <c r="D17" t="n">
         <v>271.5636903874941</v>
@@ -1859,10 +1859,10 @@
         <v>329.5838796311989</v>
       </c>
       <c r="H17" t="n">
-        <v>229.7332533956124</v>
+        <v>229.7332533956123</v>
       </c>
       <c r="I17" t="n">
-        <v>27.13905818428094</v>
+        <v>27.13905818428091</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.66446054915193</v>
+        <v>66.6644605491519</v>
       </c>
       <c r="T17" t="n">
-        <v>128.5971579672962</v>
+        <v>128.5971579672961</v>
       </c>
       <c r="U17" t="n">
         <v>168.0183411425879</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.71262894874852</v>
+        <v>96.71262894874849</v>
       </c>
       <c r="C19" t="n">
-        <v>84.12746986543905</v>
+        <v>84.12746986543902</v>
       </c>
       <c r="D19" t="n">
-        <v>65.49612178502358</v>
+        <v>65.49612178502355</v>
       </c>
       <c r="E19" t="n">
-        <v>63.31461141338039</v>
+        <v>63.31461141338036</v>
       </c>
       <c r="F19" t="n">
-        <v>62.30169678974246</v>
+        <v>62.30169678974244</v>
       </c>
       <c r="G19" t="n">
-        <v>83.70557893295731</v>
+        <v>83.70557893295728</v>
       </c>
       <c r="H19" t="n">
-        <v>68.74058390987076</v>
+        <v>68.74058390987186</v>
       </c>
       <c r="I19" t="n">
-        <v>37.26484434706629</v>
+        <v>37.26484434706626</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.74422827872138</v>
+        <v>41.74422827872135</v>
       </c>
       <c r="S19" t="n">
         <v>120.5761895159343</v>
@@ -2065,7 +2065,7 @@
         <v>203.4036471034022</v>
       </c>
       <c r="X19" t="n">
-        <v>142.5903041558484</v>
+        <v>142.5903041558483</v>
       </c>
       <c r="Y19" t="n">
         <v>135.465302118906</v>
@@ -2081,7 +2081,7 @@
         <v>299.6144904302918</v>
       </c>
       <c r="C20" t="n">
-        <v>282.1535405378188</v>
+        <v>282.1535405378187</v>
       </c>
       <c r="D20" t="n">
         <v>271.5636903874941</v>
@@ -2099,7 +2099,7 @@
         <v>229.7332533956123</v>
       </c>
       <c r="I20" t="n">
-        <v>27.13905818428094</v>
+        <v>27.13905818428091</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.66446054915193</v>
+        <v>66.6644605491519</v>
       </c>
       <c r="T20" t="n">
-        <v>128.5971579672962</v>
+        <v>128.5971579672961</v>
       </c>
       <c r="U20" t="n">
         <v>168.0183411425879</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.71262894874852</v>
+        <v>96.71262894874849</v>
       </c>
       <c r="C22" t="n">
-        <v>84.12746986543905</v>
+        <v>84.12746986543902</v>
       </c>
       <c r="D22" t="n">
-        <v>65.49612178502358</v>
+        <v>65.49612178502355</v>
       </c>
       <c r="E22" t="n">
-        <v>63.31461141338039</v>
+        <v>63.31461141338036</v>
       </c>
       <c r="F22" t="n">
-        <v>62.30169678974246</v>
+        <v>62.30169678974244</v>
       </c>
       <c r="G22" t="n">
-        <v>83.70557893295729</v>
+        <v>83.70557893295727</v>
       </c>
       <c r="H22" t="n">
-        <v>68.74058390987076</v>
+        <v>68.74058390987074</v>
       </c>
       <c r="I22" t="n">
-        <v>37.26484434706629</v>
+        <v>37.26484434706626</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.74422827872139</v>
+        <v>41.74422827872136</v>
       </c>
       <c r="S22" t="n">
         <v>120.5761895159343</v>
@@ -2302,7 +2302,7 @@
         <v>203.4036471034022</v>
       </c>
       <c r="X22" t="n">
-        <v>142.5903041558484</v>
+        <v>142.5903041558483</v>
       </c>
       <c r="Y22" t="n">
         <v>135.465302118906</v>
@@ -2318,7 +2318,7 @@
         <v>299.6144904302918</v>
       </c>
       <c r="C23" t="n">
-        <v>282.1535405378188</v>
+        <v>282.1535405378187</v>
       </c>
       <c r="D23" t="n">
         <v>271.5636903874941</v>
@@ -2327,7 +2327,7 @@
         <v>298.811018839073</v>
       </c>
       <c r="F23" t="n">
-        <v>323.7566945085226</v>
+        <v>323.7566945085221</v>
       </c>
       <c r="G23" t="n">
         <v>329.5838796311989</v>
@@ -2336,7 +2336,7 @@
         <v>229.7332533956123</v>
       </c>
       <c r="I23" t="n">
-        <v>27.13905818428094</v>
+        <v>27.13905818428091</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.66446054915214</v>
+        <v>66.6644605491519</v>
       </c>
       <c r="T23" t="n">
-        <v>128.5971579672962</v>
+        <v>128.5971579672961</v>
       </c>
       <c r="U23" t="n">
         <v>168.0183411425879</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.71262894874852</v>
+        <v>96.71262894874849</v>
       </c>
       <c r="C25" t="n">
-        <v>84.12746986543905</v>
+        <v>84.12746986543902</v>
       </c>
       <c r="D25" t="n">
-        <v>65.49612178502358</v>
+        <v>65.49612178502355</v>
       </c>
       <c r="E25" t="n">
-        <v>63.31461141338039</v>
+        <v>63.31461141338036</v>
       </c>
       <c r="F25" t="n">
-        <v>62.30169678974246</v>
+        <v>62.30169678974244</v>
       </c>
       <c r="G25" t="n">
-        <v>83.70557893295729</v>
+        <v>83.70557893295727</v>
       </c>
       <c r="H25" t="n">
-        <v>68.74058390987076</v>
+        <v>68.74058390987074</v>
       </c>
       <c r="I25" t="n">
-        <v>37.26484434706629</v>
+        <v>37.26484434706626</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.74422827872139</v>
+        <v>41.74422827872136</v>
       </c>
       <c r="S25" t="n">
         <v>120.5761895159343</v>
@@ -2539,7 +2539,7 @@
         <v>203.4036471034022</v>
       </c>
       <c r="X25" t="n">
-        <v>142.5903041558484</v>
+        <v>142.5903041558483</v>
       </c>
       <c r="Y25" t="n">
         <v>135.465302118906</v>
@@ -2555,7 +2555,7 @@
         <v>320.6807205196587</v>
       </c>
       <c r="C26" t="n">
-        <v>303.2197706271857</v>
+        <v>303.2197706271858</v>
       </c>
       <c r="D26" t="n">
         <v>292.6299204768611</v>
@@ -2564,16 +2564,16 @@
         <v>319.8772489284399</v>
       </c>
       <c r="F26" t="n">
-        <v>344.8229245978895</v>
+        <v>344.8229245978896</v>
       </c>
       <c r="G26" t="n">
-        <v>350.6501097205658</v>
+        <v>350.6501097205659</v>
       </c>
       <c r="H26" t="n">
-        <v>250.7994834849792</v>
+        <v>250.7994834849793</v>
       </c>
       <c r="I26" t="n">
-        <v>48.20528827364785</v>
+        <v>48.20528827364791</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>87.73069063851884</v>
+        <v>87.73069063851889</v>
       </c>
       <c r="T26" t="n">
         <v>149.6633880566631</v>
       </c>
       <c r="U26" t="n">
-        <v>189.0845712319548</v>
+        <v>189.0845712319549</v>
       </c>
       <c r="V26" t="n">
-        <v>265.699137326313</v>
+        <v>265.6991373263131</v>
       </c>
       <c r="W26" t="n">
-        <v>287.1878475735911</v>
+        <v>287.1878475735912</v>
       </c>
       <c r="X26" t="n">
-        <v>307.6779795346471</v>
+        <v>307.6779795346472</v>
       </c>
       <c r="Y26" t="n">
-        <v>324.1848175122317</v>
+        <v>324.1848175122318</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>117.7788590381154</v>
+        <v>117.7788590381155</v>
       </c>
       <c r="C28" t="n">
         <v>105.193699954806</v>
       </c>
       <c r="D28" t="n">
-        <v>86.56235187439049</v>
+        <v>86.56235187439054</v>
       </c>
       <c r="E28" t="n">
-        <v>84.3808415027473</v>
+        <v>80.0673894400516</v>
       </c>
       <c r="F28" t="n">
-        <v>54.01336980546003</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>104.7718090223243</v>
       </c>
       <c r="H28" t="n">
-        <v>89.80681399923768</v>
+        <v>89.80681399923773</v>
       </c>
       <c r="I28" t="n">
-        <v>58.3310744364332</v>
+        <v>58.33107443643325</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>62.81045836808835</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>141.6424196053013</v>
       </c>
       <c r="T28" t="n">
-        <v>160.9102580991236</v>
+        <v>160.9102580991237</v>
       </c>
       <c r="U28" t="n">
         <v>224.202305529452</v>
       </c>
       <c r="V28" t="n">
-        <v>190.0845221800061</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>224.4698771927691</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>163.6565342452153</v>
       </c>
       <c r="Y28" t="n">
-        <v>156.5315322082729</v>
+        <v>156.531532208273</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>350.6501097205658</v>
       </c>
       <c r="H29" t="n">
-        <v>250.7994834849792</v>
+        <v>250.7994834849793</v>
       </c>
       <c r="I29" t="n">
         <v>48.20528827364785</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>117.7788590381154</v>
       </c>
       <c r="C31" t="n">
         <v>105.193699954806</v>
       </c>
       <c r="D31" t="n">
-        <v>86.56235187439049</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>84.3808415027473</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>57.14616486942303</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>62.8104583680883</v>
+        <v>9.464423331318661</v>
       </c>
       <c r="S31" t="n">
         <v>141.6424196053012</v>
@@ -3013,7 +3013,7 @@
         <v>224.4698771927691</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>163.6565342452153</v>
       </c>
       <c r="Y31" t="n">
         <v>156.5315322082729</v>
@@ -3029,7 +3029,7 @@
         <v>299.6144904302918</v>
       </c>
       <c r="C32" t="n">
-        <v>282.1535405378188</v>
+        <v>282.1535405378187</v>
       </c>
       <c r="D32" t="n">
         <v>271.5636903874941</v>
@@ -3044,10 +3044,10 @@
         <v>329.5838796311989</v>
       </c>
       <c r="H32" t="n">
-        <v>229.7332533956123</v>
+        <v>312.8526046288011</v>
       </c>
       <c r="I32" t="n">
-        <v>110.2584094174697</v>
+        <v>105.0528985572205</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.66446054915193</v>
+        <v>66.6644605491519</v>
       </c>
       <c r="T32" t="n">
-        <v>206.5109983402349</v>
+        <v>128.5971579672961</v>
       </c>
       <c r="U32" t="n">
-        <v>168.0183411425879</v>
+        <v>251.1376923757767</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>244.6329072369461</v>
       </c>
       <c r="W32" t="n">
         <v>266.1216174842242</v>
@@ -3126,7 +3126,7 @@
         <v>98.80267754611702</v>
       </c>
       <c r="I33" t="n">
-        <v>41.50961263366825</v>
+        <v>41.50961263366823</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>13.80259106953176</v>
+        <v>13.80259106953174</v>
       </c>
       <c r="S33" t="n">
         <v>145.8485812156649</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.71262894874852</v>
+        <v>96.7126289487485</v>
       </c>
       <c r="C34" t="n">
-        <v>84.12746986543905</v>
+        <v>84.12746986543904</v>
       </c>
       <c r="D34" t="n">
-        <v>65.49612178502358</v>
+        <v>65.49612178502356</v>
       </c>
       <c r="E34" t="n">
-        <v>63.31461141338039</v>
+        <v>63.31461141338038</v>
       </c>
       <c r="F34" t="n">
-        <v>62.30169678974246</v>
+        <v>62.30169678974245</v>
       </c>
       <c r="G34" t="n">
-        <v>83.70557893295731</v>
+        <v>83.70557893295728</v>
       </c>
       <c r="H34" t="n">
-        <v>68.74058390987076</v>
+        <v>68.74058390987075</v>
       </c>
       <c r="I34" t="n">
-        <v>37.26484434706629</v>
+        <v>37.26484434706627</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.74422827872138</v>
+        <v>41.74422827872136</v>
       </c>
       <c r="S34" t="n">
-        <v>120.5761895159343</v>
+        <v>120.5761895159342</v>
       </c>
       <c r="T34" t="n">
         <v>139.8440280097567</v>
@@ -3250,7 +3250,7 @@
         <v>203.4036471034022</v>
       </c>
       <c r="X34" t="n">
-        <v>142.5903041558484</v>
+        <v>142.5903041558483</v>
       </c>
       <c r="Y34" t="n">
         <v>135.465302118906</v>
@@ -3266,7 +3266,7 @@
         <v>299.6144904302918</v>
       </c>
       <c r="C35" t="n">
-        <v>282.1535405378188</v>
+        <v>282.1535405378187</v>
       </c>
       <c r="D35" t="n">
         <v>271.5636903874941</v>
@@ -3281,7 +3281,7 @@
         <v>329.5838796311989</v>
       </c>
       <c r="H35" t="n">
-        <v>229.7332533956124</v>
+        <v>229.7332533956123</v>
       </c>
       <c r="I35" t="n">
         <v>27.13905818428094</v>
@@ -3317,7 +3317,7 @@
         <v>66.66446054915193</v>
       </c>
       <c r="T35" t="n">
-        <v>128.5971579672962</v>
+        <v>128.5971579672961</v>
       </c>
       <c r="U35" t="n">
         <v>168.0183411425879</v>
@@ -3360,7 +3360,7 @@
         <v>135.9526584868226</v>
       </c>
       <c r="H36" t="n">
-        <v>98.80267754611702</v>
+        <v>98.80267754611704</v>
       </c>
       <c r="I36" t="n">
         <v>41.50961263366825</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>13.80259106953176</v>
+        <v>13.80259106953177</v>
       </c>
       <c r="S36" t="n">
         <v>145.8485812156649</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.71262894874852</v>
+        <v>96.7126289487485</v>
       </c>
       <c r="C37" t="n">
-        <v>84.12746986543905</v>
+        <v>84.12746986543904</v>
       </c>
       <c r="D37" t="n">
-        <v>65.49612178502358</v>
+        <v>65.49612178502356</v>
       </c>
       <c r="E37" t="n">
-        <v>63.31461141338039</v>
+        <v>63.31461141338038</v>
       </c>
       <c r="F37" t="n">
-        <v>62.30169678974246</v>
+        <v>62.30169678974245</v>
       </c>
       <c r="G37" t="n">
-        <v>83.70557893295731</v>
+        <v>83.70557893295728</v>
       </c>
       <c r="H37" t="n">
-        <v>68.74058390987076</v>
+        <v>68.74058390987075</v>
       </c>
       <c r="I37" t="n">
-        <v>37.26484434706629</v>
+        <v>37.26484434706627</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>203.4036471034022</v>
       </c>
       <c r="X37" t="n">
-        <v>142.5903041558484</v>
+        <v>142.5903041558483</v>
       </c>
       <c r="Y37" t="n">
         <v>135.465302118906</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>299.6144904302918</v>
+        <v>299.6144904302919</v>
       </c>
       <c r="C38" t="n">
-        <v>282.1535405378188</v>
+        <v>282.1535405378189</v>
       </c>
       <c r="D38" t="n">
-        <v>271.5636903874942</v>
+        <v>271.5636903874943</v>
       </c>
       <c r="E38" t="n">
-        <v>298.811018839073</v>
+        <v>298.8110188390731</v>
       </c>
       <c r="F38" t="n">
         <v>323.7566945085227</v>
@@ -3518,10 +3518,10 @@
         <v>329.583879631199</v>
       </c>
       <c r="H38" t="n">
-        <v>229.7332533956124</v>
+        <v>229.7332533956125</v>
       </c>
       <c r="I38" t="n">
-        <v>27.13905818428097</v>
+        <v>27.139058184281</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.66446054915195</v>
+        <v>66.66446054915201</v>
       </c>
       <c r="T38" t="n">
-        <v>128.5971579672962</v>
+        <v>128.5971579672963</v>
       </c>
       <c r="U38" t="n">
         <v>168.018341142588</v>
@@ -3569,7 +3569,7 @@
         <v>286.6117494452803</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.1185874228648</v>
+        <v>303.1185874228649</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>98.80267754611702</v>
       </c>
       <c r="I39" t="n">
-        <v>41.50961263366825</v>
+        <v>41.50961263366823</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>13.80259106953176</v>
+        <v>13.80259106953174</v>
       </c>
       <c r="S39" t="n">
         <v>145.8485812156649</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.71262894874855</v>
+        <v>96.7126289487486</v>
       </c>
       <c r="C40" t="n">
-        <v>84.12746986543908</v>
+        <v>84.12746986543914</v>
       </c>
       <c r="D40" t="n">
-        <v>65.4961217850236</v>
+        <v>65.49612178502366</v>
       </c>
       <c r="E40" t="n">
-        <v>63.31461141338042</v>
+        <v>63.31461141338048</v>
       </c>
       <c r="F40" t="n">
-        <v>62.30169678974249</v>
+        <v>62.30169678974255</v>
       </c>
       <c r="G40" t="n">
-        <v>83.70557893295732</v>
+        <v>83.70557893295738</v>
       </c>
       <c r="H40" t="n">
-        <v>68.74058390987079</v>
+        <v>68.74058390987085</v>
       </c>
       <c r="I40" t="n">
-        <v>37.26484434706632</v>
+        <v>37.26484434706637</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.74422827872142</v>
+        <v>41.74422827872146</v>
       </c>
       <c r="S40" t="n">
-        <v>120.5761895159343</v>
+        <v>120.5761895159344</v>
       </c>
       <c r="T40" t="n">
-        <v>139.8440280097567</v>
+        <v>139.8440280097568</v>
       </c>
       <c r="U40" t="n">
         <v>203.1360754400851</v>
       </c>
       <c r="V40" t="n">
-        <v>169.0182920906392</v>
+        <v>169.0182920906393</v>
       </c>
       <c r="W40" t="n">
-        <v>203.4036471034022</v>
+        <v>203.4036471034023</v>
       </c>
       <c r="X40" t="n">
-        <v>142.5903041558484</v>
+        <v>142.5903041558485</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.465302118906</v>
+        <v>135.4653021189061</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>299.6144904302918</v>
       </c>
       <c r="C41" t="n">
-        <v>282.1535405378187</v>
+        <v>282.1535405378188</v>
       </c>
       <c r="D41" t="n">
-        <v>271.5636903874941</v>
+        <v>271.5636903874942</v>
       </c>
       <c r="E41" t="n">
         <v>298.811018839073</v>
       </c>
       <c r="F41" t="n">
-        <v>323.7566945085226</v>
+        <v>323.7566945085227</v>
       </c>
       <c r="G41" t="n">
-        <v>329.5838796311989</v>
+        <v>329.583879631199</v>
       </c>
       <c r="H41" t="n">
-        <v>229.7332533956123</v>
+        <v>229.7332533956124</v>
       </c>
       <c r="I41" t="n">
-        <v>27.13905818428093</v>
+        <v>27.13905818428096</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.66446054915191</v>
+        <v>66.66446054915194</v>
       </c>
       <c r="T41" t="n">
-        <v>128.5971579672961</v>
+        <v>128.5971579672962</v>
       </c>
       <c r="U41" t="n">
         <v>168.0183411425879</v>
       </c>
       <c r="V41" t="n">
-        <v>244.6329072369461</v>
+        <v>244.6329072369462</v>
       </c>
       <c r="W41" t="n">
-        <v>266.1216174842242</v>
+        <v>266.1216174842243</v>
       </c>
       <c r="X41" t="n">
-        <v>286.6117494452802</v>
+        <v>286.6117494452803</v>
       </c>
       <c r="Y41" t="n">
         <v>303.1185874228648</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.7126289487485</v>
+        <v>96.71262894874853</v>
       </c>
       <c r="C43" t="n">
-        <v>84.12746986543904</v>
+        <v>84.12746986543907</v>
       </c>
       <c r="D43" t="n">
-        <v>65.49612178502356</v>
+        <v>65.49612178502359</v>
       </c>
       <c r="E43" t="n">
-        <v>63.31461141338038</v>
+        <v>63.3146114133804</v>
       </c>
       <c r="F43" t="n">
-        <v>62.30169678974245</v>
+        <v>62.30169678974248</v>
       </c>
       <c r="G43" t="n">
-        <v>83.70557893295729</v>
+        <v>83.70557893295732</v>
       </c>
       <c r="H43" t="n">
-        <v>68.74058390987075</v>
+        <v>68.74058390987078</v>
       </c>
       <c r="I43" t="n">
-        <v>37.26484434706627</v>
+        <v>37.2648443470663</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.74422827872137</v>
+        <v>41.74422827872139</v>
       </c>
       <c r="S43" t="n">
         <v>120.5761895159343</v>
@@ -3961,7 +3961,7 @@
         <v>203.4036471034022</v>
       </c>
       <c r="X43" t="n">
-        <v>142.5903041558483</v>
+        <v>142.5903041558484</v>
       </c>
       <c r="Y43" t="n">
         <v>135.465302118906</v>
@@ -3977,7 +3977,7 @@
         <v>299.6144904302918</v>
       </c>
       <c r="C44" t="n">
-        <v>282.1535405378187</v>
+        <v>282.1535405378188</v>
       </c>
       <c r="D44" t="n">
         <v>271.5636903874941</v>
@@ -3995,7 +3995,7 @@
         <v>229.7332533956123</v>
       </c>
       <c r="I44" t="n">
-        <v>27.1390581842809</v>
+        <v>27.13905818428094</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.66446054915187</v>
+        <v>66.66446054915193</v>
       </c>
       <c r="T44" t="n">
-        <v>128.5971579672961</v>
+        <v>128.5971579672962</v>
       </c>
       <c r="U44" t="n">
         <v>168.0183411425879</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.71262894874847</v>
+        <v>96.71262894874852</v>
       </c>
       <c r="C46" t="n">
-        <v>84.12746986543901</v>
+        <v>84.12746986543905</v>
       </c>
       <c r="D46" t="n">
-        <v>65.49612178502353</v>
+        <v>65.49612178502358</v>
       </c>
       <c r="E46" t="n">
-        <v>63.31461141338035</v>
+        <v>63.31461141338029</v>
       </c>
       <c r="F46" t="n">
-        <v>62.30169678974242</v>
+        <v>62.30169678974246</v>
       </c>
       <c r="G46" t="n">
-        <v>83.70557893295727</v>
+        <v>83.70557893295731</v>
       </c>
       <c r="H46" t="n">
-        <v>68.74058390987072</v>
+        <v>68.74058390987076</v>
       </c>
       <c r="I46" t="n">
-        <v>37.26484434706624</v>
+        <v>37.26484434706629</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74422827872225</v>
+        <v>41.74422827872139</v>
       </c>
       <c r="S46" t="n">
         <v>120.5761895159343</v>
@@ -4198,7 +4198,7 @@
         <v>203.4036471034022</v>
       </c>
       <c r="X46" t="n">
-        <v>142.5903041558483</v>
+        <v>142.5903041558484</v>
       </c>
       <c r="Y46" t="n">
         <v>135.465302118906</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.75685858698967</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="C2" t="n">
-        <v>91.75685858698967</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="D2" t="n">
-        <v>91.75685858698967</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="E2" t="n">
-        <v>65.87777657221105</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="F2" t="n">
-        <v>39.99869455743244</v>
+        <v>40.631385380739</v>
       </c>
       <c r="G2" t="n">
-        <v>14.11961254265382</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="H2" t="n">
         <v>14.11961254265382</v>
@@ -4331,19 +4331,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L2" t="n">
-        <v>26.38889993046976</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M2" t="n">
-        <v>26.38889993046976</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N2" t="n">
-        <v>51.75298821315428</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O2" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P2" t="n">
         <v>102.4811647785233</v>
@@ -4361,19 +4361,19 @@
         <v>92.38954941029624</v>
       </c>
       <c r="U2" t="n">
-        <v>92.38954941029624</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V2" t="n">
-        <v>92.38954941029624</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W2" t="n">
-        <v>91.75685858698967</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X2" t="n">
-        <v>91.75685858698967</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="Y2" t="n">
-        <v>91.75685858698967</v>
+        <v>66.51046739551762</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.80375594835618</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="C3" t="n">
-        <v>2.80375594835618</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="D3" t="n">
-        <v>2.80375594835618</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="E3" t="n">
-        <v>2.80375594835618</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="F3" t="n">
-        <v>2.80375594835618</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="G3" t="n">
         <v>2.80375594835618</v>
@@ -4419,40 +4419,40 @@
         <v>2.049623295570466</v>
       </c>
       <c r="N3" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O3" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P3" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q3" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>102.4811647785233</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="S3" t="n">
-        <v>102.4811647785233</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="T3" t="n">
-        <v>76.6020827637447</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="U3" t="n">
-        <v>76.6020827637447</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="V3" t="n">
-        <v>50.72300074896609</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="W3" t="n">
-        <v>24.84391873418747</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="X3" t="n">
-        <v>2.80375594835618</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.80375594835618</v>
+        <v>54.56191997791342</v>
       </c>
     </row>
     <row r="4">
@@ -4471,22 +4471,22 @@
         <v>73.85315272828358</v>
       </c>
       <c r="E4" t="n">
-        <v>53.80778732512771</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="F4" t="n">
-        <v>53.80778732512771</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="G4" t="n">
-        <v>53.80778732512771</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="H4" t="n">
-        <v>27.92870531034908</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I4" t="n">
-        <v>27.92870531034908</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J4" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K4" t="n">
         <v>2.049623295570466</v>
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.68686933990632</v>
+        <v>65.87777657221106</v>
       </c>
       <c r="C5" t="n">
-        <v>79.68686933990632</v>
+        <v>65.87777657221106</v>
       </c>
       <c r="D5" t="n">
-        <v>79.68686933990632</v>
+        <v>65.87777657221106</v>
       </c>
       <c r="E5" t="n">
-        <v>79.68686933990632</v>
+        <v>65.87777657221106</v>
       </c>
       <c r="F5" t="n">
-        <v>53.80778732512771</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="G5" t="n">
-        <v>27.92870531034909</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H5" t="n">
-        <v>2.049623295570467</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I5" t="n">
-        <v>2.049623295570467</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J5" t="n">
         <v>2.049623295570467</v>
       </c>
       <c r="K5" t="n">
+        <v>2.049623295570467</v>
+      </c>
+      <c r="L5" t="n">
         <v>26.38889993046975</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>26.38889993046975</v>
+      </c>
+      <c r="N5" t="n">
         <v>51.75298821315427</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="N5" t="n">
-        <v>102.4811647785233</v>
-      </c>
-      <c r="O5" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="P5" t="n">
         <v>102.4811647785233</v>
@@ -4592,25 +4592,25 @@
         <v>92.38954941029625</v>
       </c>
       <c r="S5" t="n">
-        <v>92.38954941029625</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="T5" t="n">
-        <v>92.38954941029625</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="U5" t="n">
-        <v>92.38954941029625</v>
+        <v>65.87777657221106</v>
       </c>
       <c r="V5" t="n">
-        <v>92.38954941029625</v>
+        <v>65.87777657221106</v>
       </c>
       <c r="W5" t="n">
-        <v>92.38954941029625</v>
+        <v>65.87777657221106</v>
       </c>
       <c r="X5" t="n">
-        <v>79.68686933990632</v>
+        <v>65.87777657221106</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.68686933990632</v>
+        <v>65.87777657221106</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.803755948356181</v>
+        <v>50.7230007489661</v>
       </c>
       <c r="C6" t="n">
-        <v>2.803755948356181</v>
+        <v>50.7230007489661</v>
       </c>
       <c r="D6" t="n">
-        <v>2.803755948356181</v>
+        <v>50.7230007489661</v>
       </c>
       <c r="E6" t="n">
-        <v>2.803755948356181</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="F6" t="n">
-        <v>2.803755948356181</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="G6" t="n">
-        <v>2.803755948356181</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="H6" t="n">
         <v>2.803755948356181</v>
@@ -4650,19 +4650,19 @@
         <v>2.049623295570467</v>
       </c>
       <c r="L6" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570467</v>
       </c>
       <c r="M6" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046975</v>
       </c>
       <c r="N6" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315427</v>
       </c>
       <c r="O6" t="n">
-        <v>52.77779986093952</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P6" t="n">
-        <v>78.14188814362404</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q6" t="n">
         <v>102.4811647785233</v>
@@ -4671,25 +4671,25 @@
         <v>76.60208276374472</v>
       </c>
       <c r="S6" t="n">
+        <v>76.60208276374472</v>
+      </c>
+      <c r="T6" t="n">
+        <v>76.60208276374472</v>
+      </c>
+      <c r="U6" t="n">
+        <v>76.60208276374472</v>
+      </c>
+      <c r="V6" t="n">
         <v>50.7230007489661</v>
       </c>
-      <c r="T6" t="n">
-        <v>24.84391873418748</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.803755948356181</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.803755948356181</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.803755948356181</v>
+        <v>50.7230007489661</v>
       </c>
       <c r="X6" t="n">
-        <v>2.803755948356181</v>
+        <v>50.7230007489661</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.803755948356181</v>
+        <v>50.7230007489661</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="C7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="D7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="E7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="F7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="G7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="H7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="I7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570467</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K7" t="n">
         <v>2.049623295570467</v>
@@ -4747,28 +4747,28 @@
         <v>99.73223474306219</v>
       </c>
       <c r="R7" t="n">
-        <v>79.68686933990632</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S7" t="n">
-        <v>53.80778732512771</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="T7" t="n">
-        <v>27.92870531034909</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="U7" t="n">
-        <v>2.049623295570467</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="V7" t="n">
-        <v>2.049623295570467</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="W7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="X7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.049623295570467</v>
+        <v>47.97407071350496</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C8" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D8" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E8" t="n">
-        <v>121.8591222504766</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F8" t="n">
-        <v>77.28117035226589</v>
+        <v>70.33566960306241</v>
       </c>
       <c r="G8" t="n">
-        <v>32.70321845405519</v>
+        <v>54.87835898171387</v>
       </c>
       <c r="H8" t="n">
-        <v>32.70321845405519</v>
+        <v>54.87835898171387</v>
       </c>
       <c r="I8" t="n">
         <v>15.60056303742164</v>
@@ -4808,16 +4808,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N8" t="n">
-        <v>134.6031257566472</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
         <v>176.5286895169144</v>
@@ -4841,13 +4841,13 @@
         <v>166.4370741486873</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X8" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D9" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E9" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F9" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H9" t="n">
-        <v>4.284706443124001</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>45.45613755060546</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>45.45613755060546</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>138.0185621377561</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>93.44061023954541</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>93.44061023954541</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>93.44061023954541</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>93.44061023954541</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X9" t="n">
-        <v>48.8626583413347</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C10" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D10" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E10" t="n">
-        <v>70.60296187630945</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F10" t="n">
         <v>26.02500997809875</v>
@@ -4990,22 +4990,22 @@
         <v>135.3139342451479</v>
       </c>
       <c r="T10" t="n">
-        <v>135.3139342451479</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="U10" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="V10" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W10" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X10" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1717.64348021064</v>
+        <v>1816.737698737545</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.53240667984</v>
+        <v>1469.626625206745</v>
       </c>
       <c r="D11" t="n">
-        <v>1370.53240667984</v>
+        <v>1133.212370009607</v>
       </c>
       <c r="E11" t="n">
-        <v>1006.595597491208</v>
+        <v>769.2755608209745</v>
       </c>
       <c r="F11" t="n">
-        <v>617.4611361112125</v>
+        <v>380.1410994409798</v>
       </c>
       <c r="G11" t="n">
-        <v>456.3705029030994</v>
+        <v>72.6885270493227</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2092143644275</v>
+        <v>72.6885270493227</v>
       </c>
       <c r="I11" t="n">
         <v>72.6885270493227</v>
       </c>
       <c r="J11" t="n">
-        <v>111.8766603907803</v>
+        <v>279.2823094111333</v>
       </c>
       <c r="K11" t="n">
-        <v>542.2519904854524</v>
+        <v>709.6576395058055</v>
       </c>
       <c r="L11" t="n">
-        <v>1128.447271400041</v>
+        <v>1295.852920420394</v>
       </c>
       <c r="M11" t="n">
-        <v>1797.309014629101</v>
+        <v>1645.529359265106</v>
       </c>
       <c r="N11" t="n">
-        <v>2462.361642591217</v>
+        <v>2310.581987227223</v>
       </c>
       <c r="O11" t="n">
-        <v>3045.164342672957</v>
+        <v>2893.384687308963</v>
       </c>
       <c r="P11" t="n">
-        <v>3504.898580668179</v>
+        <v>3353.118925304184</v>
       </c>
       <c r="Q11" t="n">
-        <v>3634.426352466135</v>
+        <v>3621.138432174366</v>
       </c>
       <c r="R11" t="n">
         <v>3634.426352466135</v>
@@ -5072,19 +5072,19 @@
         <v>3442.422736077277</v>
       </c>
       <c r="U11" t="n">
-        <v>3442.422736077277</v>
+        <v>3210.599742743681</v>
       </c>
       <c r="V11" t="n">
-        <v>3133.211292143319</v>
+        <v>2901.388298809722</v>
       </c>
       <c r="W11" t="n">
-        <v>2802.294080282817</v>
+        <v>2901.388298809722</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.679765431349</v>
+        <v>2549.773983958254</v>
       </c>
       <c r="Y11" t="n">
-        <v>2082.391876865149</v>
+        <v>2181.486095392054</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>72.6885270493227</v>
       </c>
       <c r="J12" t="n">
-        <v>202.0409888319172</v>
+        <v>77.21086384491242</v>
       </c>
       <c r="K12" t="n">
-        <v>549.7457920901644</v>
+        <v>163.0950824607069</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.682205795553</v>
+        <v>692.0314961660957</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.857260798671</v>
+        <v>1361.254564281714</v>
       </c>
       <c r="N12" t="n">
-        <v>1514.95073497926</v>
+        <v>1896.187120570212</v>
       </c>
       <c r="O12" t="n">
-        <v>1949.297332841457</v>
+        <v>2472.551988653485</v>
       </c>
       <c r="P12" t="n">
-        <v>2394.877885025236</v>
+        <v>2602.854399883726</v>
       </c>
       <c r="Q12" t="n">
         <v>2640.038914628136</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>332.4961535243124</v>
+        <v>437.2640252392095</v>
       </c>
       <c r="C13" t="n">
-        <v>332.4961535243124</v>
+        <v>290.1792857209147</v>
       </c>
       <c r="D13" t="n">
-        <v>204.2309575215887</v>
+        <v>219.3471141105653</v>
       </c>
       <c r="E13" t="n">
-        <v>204.2309575215887</v>
+        <v>219.3471141105653</v>
       </c>
       <c r="F13" t="n">
-        <v>204.2309575215887</v>
+        <v>219.3471141105653</v>
       </c>
       <c r="G13" t="n">
-        <v>204.2309575215887</v>
+        <v>72.6885270493227</v>
       </c>
       <c r="H13" t="n">
         <v>72.6885270493227</v>
@@ -5197,25 +5197,25 @@
         <v>72.6885270493227</v>
       </c>
       <c r="J13" t="n">
-        <v>83.294819537119</v>
+        <v>83.29481953711905</v>
       </c>
       <c r="K13" t="n">
-        <v>216.7836004150604</v>
+        <v>216.7836004150605</v>
       </c>
       <c r="L13" t="n">
-        <v>437.1404415282687</v>
+        <v>437.1404415282689</v>
       </c>
       <c r="M13" t="n">
-        <v>678.7007554136798</v>
+        <v>678.7007554136801</v>
       </c>
       <c r="N13" t="n">
-        <v>920.4611602426714</v>
+        <v>920.4611602426717</v>
       </c>
       <c r="O13" t="n">
         <v>1129.38463214203</v>
       </c>
       <c r="P13" t="n">
-        <v>1287.725071590786</v>
+        <v>1287.725071590787</v>
       </c>
       <c r="Q13" t="n">
         <v>1320.505560450899</v>
@@ -5224,25 +5224,25 @@
         <v>1320.505560450899</v>
       </c>
       <c r="S13" t="n">
-        <v>1320.505560450899</v>
+        <v>1136.603932396751</v>
       </c>
       <c r="T13" t="n">
-        <v>1320.505560450899</v>
+        <v>1136.603932396751</v>
       </c>
       <c r="U13" t="n">
-        <v>1320.505560450899</v>
+        <v>1136.603932396751</v>
       </c>
       <c r="V13" t="n">
-        <v>1087.672515654624</v>
+        <v>903.770887600476</v>
       </c>
       <c r="W13" t="n">
-        <v>820.1067890272755</v>
+        <v>636.2051609731275</v>
       </c>
       <c r="X13" t="n">
-        <v>691.234310678858</v>
+        <v>636.2051609731275</v>
       </c>
       <c r="Y13" t="n">
-        <v>492.29317494494</v>
+        <v>437.2640252392095</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1892.967102199665</v>
+        <v>1717.643480210639</v>
       </c>
       <c r="C14" t="n">
-        <v>1545.856028668865</v>
+        <v>1370.53240667984</v>
       </c>
       <c r="D14" t="n">
-        <v>1209.441773471727</v>
+        <v>1240.525471241551</v>
       </c>
       <c r="E14" t="n">
-        <v>845.5049642830946</v>
+        <v>1240.525471241551</v>
       </c>
       <c r="F14" t="n">
-        <v>456.3705029030995</v>
+        <v>851.3910098615559</v>
       </c>
       <c r="G14" t="n">
         <v>456.3705029030995</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2092143644275</v>
+        <v>162.2092143644276</v>
       </c>
       <c r="I14" t="n">
         <v>72.6885270493227</v>
@@ -5285,43 +5285,43 @@
         <v>1295.852920420394</v>
       </c>
       <c r="M14" t="n">
-        <v>1658.817279556875</v>
+        <v>1645.529359265106</v>
       </c>
       <c r="N14" t="n">
-        <v>2323.869907518992</v>
+        <v>2310.581987227223</v>
       </c>
       <c r="O14" t="n">
-        <v>2906.672607600732</v>
+        <v>2893.384687308963</v>
       </c>
       <c r="P14" t="n">
-        <v>3366.406845595953</v>
+        <v>3353.118925304184</v>
       </c>
       <c r="Q14" t="n">
-        <v>3634.426352466135</v>
+        <v>3621.138432174366</v>
       </c>
       <c r="R14" t="n">
         <v>3634.426352466135</v>
       </c>
       <c r="S14" t="n">
-        <v>3504.981016297625</v>
+        <v>3634.426352466135</v>
       </c>
       <c r="T14" t="n">
-        <v>3312.977399908767</v>
+        <v>3442.422736077277</v>
       </c>
       <c r="U14" t="n">
-        <v>3286.829146205801</v>
+        <v>3442.422736077277</v>
       </c>
       <c r="V14" t="n">
-        <v>2977.617702271843</v>
+        <v>3133.211292143319</v>
       </c>
       <c r="W14" t="n">
-        <v>2977.617702271843</v>
+        <v>2802.294080282817</v>
       </c>
       <c r="X14" t="n">
-        <v>2626.003387420375</v>
+        <v>2450.679765431349</v>
       </c>
       <c r="Y14" t="n">
-        <v>2257.715498854175</v>
+        <v>2082.391876865149</v>
       </c>
     </row>
     <row r="15">
@@ -5364,10 +5364,10 @@
         <v>1078.682205795553</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.857260798671</v>
+        <v>1534.762686661557</v>
       </c>
       <c r="N15" t="n">
-        <v>1514.95073497926</v>
+        <v>1762.856160842146</v>
       </c>
       <c r="O15" t="n">
         <v>1949.297332841457</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>349.4472456280963</v>
+        <v>327.0153732248275</v>
       </c>
       <c r="C16" t="n">
-        <v>202.3625061098015</v>
+        <v>327.0153732248275</v>
       </c>
       <c r="D16" t="n">
-        <v>74.09731010707776</v>
+        <v>198.7501772221038</v>
       </c>
       <c r="E16" t="n">
-        <v>74.09731010707776</v>
+        <v>72.6885270493227</v>
       </c>
       <c r="F16" t="n">
         <v>72.6885270493227</v>
@@ -5440,13 +5440,13 @@
         <v>216.7836004150604</v>
       </c>
       <c r="L16" t="n">
-        <v>437.1404415282687</v>
+        <v>437.1404415282686</v>
       </c>
       <c r="M16" t="n">
-        <v>678.7007554136798</v>
+        <v>678.7007554136799</v>
       </c>
       <c r="N16" t="n">
-        <v>920.4611602426714</v>
+        <v>920.4611602426716</v>
       </c>
       <c r="O16" t="n">
         <v>1129.38463214203</v>
@@ -5458,28 +5458,28 @@
         <v>1320.505560450899</v>
       </c>
       <c r="R16" t="n">
-        <v>1320.505560450899</v>
+        <v>1216.232176070703</v>
       </c>
       <c r="S16" t="n">
-        <v>1320.505560450899</v>
+        <v>1216.232176070703</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.141469271677</v>
+        <v>1012.868084891481</v>
       </c>
       <c r="U16" t="n">
-        <v>849.8460170517196</v>
+        <v>918.5865751756479</v>
       </c>
       <c r="V16" t="n">
-        <v>617.0129722554449</v>
+        <v>685.7535303793732</v>
       </c>
       <c r="W16" t="n">
-        <v>349.4472456280963</v>
+        <v>685.7535303793732</v>
       </c>
       <c r="X16" t="n">
-        <v>349.4472456280963</v>
+        <v>685.7535303793732</v>
       </c>
       <c r="Y16" t="n">
-        <v>349.4472456280963</v>
+        <v>486.8123946454551</v>
       </c>
     </row>
     <row r="17">
@@ -5498,43 +5498,43 @@
         <v>1293.92479428032</v>
       </c>
       <c r="E17" t="n">
-        <v>992.0954823216605</v>
+        <v>992.0954823216607</v>
       </c>
       <c r="F17" t="n">
-        <v>665.0685181716376</v>
+        <v>665.0685181716378</v>
       </c>
       <c r="G17" t="n">
-        <v>332.1555084431538</v>
+        <v>332.1555084431542</v>
       </c>
       <c r="H17" t="n">
-        <v>100.101717134455</v>
+        <v>100.1017171344549</v>
       </c>
       <c r="I17" t="n">
         <v>72.6885270493227</v>
       </c>
       <c r="J17" t="n">
-        <v>111.8766603907803</v>
+        <v>279.2823094111333</v>
       </c>
       <c r="K17" t="n">
-        <v>403.7602554132269</v>
+        <v>709.6576395058055</v>
       </c>
       <c r="L17" t="n">
-        <v>989.9555363278156</v>
+        <v>1295.852920420394</v>
       </c>
       <c r="M17" t="n">
-        <v>1658.817279556875</v>
+        <v>1964.714663649454</v>
       </c>
       <c r="N17" t="n">
-        <v>2323.869907518992</v>
+        <v>2629.76729161157</v>
       </c>
       <c r="O17" t="n">
-        <v>2906.672607600732</v>
+        <v>2893.384687308963</v>
       </c>
       <c r="P17" t="n">
-        <v>3366.406845595953</v>
+        <v>3353.118925304184</v>
       </c>
       <c r="Q17" t="n">
-        <v>3634.426352466135</v>
+        <v>3621.138432174366</v>
       </c>
       <c r="R17" t="n">
         <v>3634.426352466135</v>
@@ -5546,7 +5546,7 @@
         <v>3437.192394368712</v>
       </c>
       <c r="U17" t="n">
-        <v>3267.476898265088</v>
+        <v>3267.476898265089</v>
       </c>
       <c r="V17" t="n">
         <v>3020.372951561103</v>
@@ -5592,25 +5592,25 @@
         <v>72.6885270493227</v>
       </c>
       <c r="J18" t="n">
-        <v>202.0409888319172</v>
+        <v>77.21086384491242</v>
       </c>
       <c r="K18" t="n">
-        <v>549.7457920901644</v>
+        <v>407.7275218690883</v>
       </c>
       <c r="L18" t="n">
-        <v>1078.682205795553</v>
+        <v>936.6639355744771</v>
       </c>
       <c r="M18" t="n">
-        <v>1286.857260798671</v>
+        <v>1144.838990577595</v>
       </c>
       <c r="N18" t="n">
-        <v>1580.908979616675</v>
+        <v>1372.932464758184</v>
       </c>
       <c r="O18" t="n">
-        <v>2157.273847699948</v>
+        <v>1949.297332841457</v>
       </c>
       <c r="P18" t="n">
-        <v>2602.854399883726</v>
+        <v>2394.877885025236</v>
       </c>
       <c r="Q18" t="n">
         <v>2640.038914628136</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.3359079013221</v>
+        <v>542.335907901323</v>
       </c>
       <c r="C19" t="n">
-        <v>457.3586656129999</v>
+        <v>457.3586656130008</v>
       </c>
       <c r="D19" t="n">
-        <v>391.2009668402488</v>
+        <v>391.2009668402497</v>
       </c>
       <c r="E19" t="n">
-        <v>327.2468138974403</v>
+        <v>327.2468138974413</v>
       </c>
       <c r="F19" t="n">
-        <v>264.3158070391146</v>
+        <v>264.3158070391156</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7647172078446</v>
+        <v>179.7647172078456</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3297839655509</v>
+        <v>110.3297839655508</v>
       </c>
       <c r="I19" t="n">
         <v>72.6885270493227</v>
       </c>
       <c r="J19" t="n">
-        <v>144.166377572215</v>
+        <v>144.1663775722153</v>
       </c>
       <c r="K19" t="n">
-        <v>338.5267164852526</v>
+        <v>338.5267164852529</v>
       </c>
       <c r="L19" t="n">
-        <v>619.7551156335568</v>
+        <v>619.7551156335576</v>
       </c>
       <c r="M19" t="n">
-        <v>922.1869875540641</v>
+        <v>922.1869875540649</v>
       </c>
       <c r="N19" t="n">
-        <v>1224.818950418152</v>
+        <v>1224.818950418153</v>
       </c>
       <c r="O19" t="n">
-        <v>1494.613980352606</v>
+        <v>1494.613980352607</v>
       </c>
       <c r="P19" t="n">
-        <v>1713.825977836459</v>
+        <v>1713.82597783646</v>
       </c>
       <c r="Q19" t="n">
         <v>1807.478024731668</v>
@@ -5701,22 +5701,22 @@
         <v>1643.518006757268</v>
       </c>
       <c r="T19" t="n">
-        <v>1502.261412808018</v>
+        <v>1502.261412808019</v>
       </c>
       <c r="U19" t="n">
-        <v>1297.073457818033</v>
+        <v>1297.073457818034</v>
       </c>
       <c r="V19" t="n">
-        <v>1126.347910251731</v>
+        <v>1126.347910251732</v>
       </c>
       <c r="W19" t="n">
-        <v>920.889680854355</v>
+        <v>920.8896808543562</v>
       </c>
       <c r="X19" t="n">
-        <v>776.8590705959223</v>
+        <v>776.8590705959235</v>
       </c>
       <c r="Y19" t="n">
-        <v>640.0254320919772</v>
+        <v>640.025432091978</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1853.235128548313</v>
+        <v>1853.235128548311</v>
       </c>
       <c r="C20" t="n">
-        <v>1568.231552247486</v>
+        <v>1568.231552247484</v>
       </c>
       <c r="D20" t="n">
-        <v>1293.924794280321</v>
+        <v>1293.924794280319</v>
       </c>
       <c r="E20" t="n">
-        <v>992.0954823216609</v>
+        <v>992.0954823216589</v>
       </c>
       <c r="F20" t="n">
-        <v>665.0685181716381</v>
+        <v>665.068518171636</v>
       </c>
       <c r="G20" t="n">
-        <v>332.1555084431543</v>
+        <v>332.1555084431542</v>
       </c>
       <c r="H20" t="n">
-        <v>100.101717134455</v>
+        <v>100.1017171344549</v>
       </c>
       <c r="I20" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932267</v>
       </c>
       <c r="J20" t="n">
-        <v>111.8766603907803</v>
+        <v>279.2823094111333</v>
       </c>
       <c r="K20" t="n">
-        <v>542.2519904854524</v>
+        <v>709.6576395058055</v>
       </c>
       <c r="L20" t="n">
-        <v>1128.447271400041</v>
+        <v>1295.852920420394</v>
       </c>
       <c r="M20" t="n">
-        <v>1797.309014629101</v>
+        <v>1964.714663649454</v>
       </c>
       <c r="N20" t="n">
-        <v>2462.361642591217</v>
+        <v>2629.76729161157</v>
       </c>
       <c r="O20" t="n">
-        <v>2906.672607600732</v>
+        <v>2906.67260760073</v>
       </c>
       <c r="P20" t="n">
-        <v>3366.406845595953</v>
+        <v>3366.406845595952</v>
       </c>
       <c r="Q20" t="n">
-        <v>3634.426352466135</v>
+        <v>3634.426352466134</v>
       </c>
       <c r="R20" t="n">
-        <v>3634.426352466135</v>
+        <v>3634.426352466134</v>
       </c>
       <c r="S20" t="n">
-        <v>3567.088513527598</v>
+        <v>3567.088513527596</v>
       </c>
       <c r="T20" t="n">
-        <v>3437.192394368712</v>
+        <v>3437.192394368711</v>
       </c>
       <c r="U20" t="n">
-        <v>3267.476898265088</v>
+        <v>3267.476898265087</v>
       </c>
       <c r="V20" t="n">
-        <v>3020.372951561103</v>
+        <v>3020.372951561101</v>
       </c>
       <c r="W20" t="n">
-        <v>2751.563236930573</v>
+        <v>2751.563236930571</v>
       </c>
       <c r="X20" t="n">
-        <v>2462.056419309078</v>
+        <v>2462.056419309076</v>
       </c>
       <c r="Y20" t="n">
-        <v>2155.876027972851</v>
+        <v>2155.876027972849</v>
       </c>
     </row>
     <row r="21">
@@ -5820,13 +5820,13 @@
         <v>351.744030752967</v>
       </c>
       <c r="G21" t="n">
-        <v>214.4181130895099</v>
+        <v>214.4181130895098</v>
       </c>
       <c r="H21" t="n">
         <v>114.6174286994926</v>
       </c>
       <c r="I21" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932267</v>
       </c>
       <c r="J21" t="n">
         <v>202.0409888319172</v>
@@ -5835,16 +5835,16 @@
         <v>549.7457920901644</v>
       </c>
       <c r="L21" t="n">
-        <v>711.5502639451286</v>
+        <v>1078.682205795553</v>
       </c>
       <c r="M21" t="n">
-        <v>1380.773332060746</v>
+        <v>1286.857260798671</v>
       </c>
       <c r="N21" t="n">
-        <v>2078.134301795684</v>
+        <v>1514.95073497926</v>
       </c>
       <c r="O21" t="n">
-        <v>2264.575473794995</v>
+        <v>1949.297332841457</v>
       </c>
       <c r="P21" t="n">
         <v>2394.877885025236</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.3359079013226</v>
+        <v>542.335907901323</v>
       </c>
       <c r="C22" t="n">
-        <v>457.3586656130003</v>
+        <v>457.3586656130007</v>
       </c>
       <c r="D22" t="n">
-        <v>391.2009668402492</v>
+        <v>391.2009668402496</v>
       </c>
       <c r="E22" t="n">
-        <v>327.2468138974407</v>
+        <v>327.2468138974411</v>
       </c>
       <c r="F22" t="n">
-        <v>264.315807039115</v>
+        <v>264.3158070391154</v>
       </c>
       <c r="G22" t="n">
-        <v>179.764717207845</v>
+        <v>179.7647172078449</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3297839655513</v>
+        <v>110.3297839655512</v>
       </c>
       <c r="I22" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932267</v>
       </c>
       <c r="J22" t="n">
         <v>144.1663775722151</v>
       </c>
       <c r="K22" t="n">
-        <v>338.5267164852526</v>
+        <v>338.5267164852527</v>
       </c>
       <c r="L22" t="n">
-        <v>619.7551156335569</v>
+        <v>619.755115633557</v>
       </c>
       <c r="M22" t="n">
-        <v>922.1869875540641</v>
+        <v>922.1869875540643</v>
       </c>
       <c r="N22" t="n">
         <v>1224.818950418152</v>
       </c>
       <c r="O22" t="n">
-        <v>1494.613980352606</v>
+        <v>1494.613980352607</v>
       </c>
       <c r="P22" t="n">
-        <v>1713.825977836459</v>
+        <v>1713.82597783646</v>
       </c>
       <c r="Q22" t="n">
         <v>1807.478024731668</v>
@@ -5947,13 +5947,13 @@
         <v>1126.347910251732</v>
       </c>
       <c r="W22" t="n">
-        <v>920.8896808543559</v>
+        <v>920.8896808543562</v>
       </c>
       <c r="X22" t="n">
-        <v>776.8590705959232</v>
+        <v>776.8590705959235</v>
       </c>
       <c r="Y22" t="n">
-        <v>640.0254320919777</v>
+        <v>640.025432091978</v>
       </c>
     </row>
     <row r="23">
@@ -5972,49 +5972,49 @@
         <v>1293.92479428032</v>
       </c>
       <c r="E23" t="n">
-        <v>992.0954823216609</v>
+        <v>992.0954823216604</v>
       </c>
       <c r="F23" t="n">
         <v>665.0685181716381</v>
       </c>
       <c r="G23" t="n">
-        <v>332.1555084431543</v>
+        <v>332.1555084431542</v>
       </c>
       <c r="H23" t="n">
-        <v>100.101717134455</v>
+        <v>100.1017171344549</v>
       </c>
       <c r="I23" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932267</v>
       </c>
       <c r="J23" t="n">
-        <v>111.8766603907803</v>
+        <v>279.2823094111333</v>
       </c>
       <c r="K23" t="n">
-        <v>542.2519904854524</v>
+        <v>709.6576395058055</v>
       </c>
       <c r="L23" t="n">
-        <v>1128.447271400041</v>
+        <v>1295.852920420394</v>
       </c>
       <c r="M23" t="n">
-        <v>1645.529359265107</v>
+        <v>1964.714663649454</v>
       </c>
       <c r="N23" t="n">
-        <v>2310.581987227223</v>
+        <v>2629.76729161157</v>
       </c>
       <c r="O23" t="n">
-        <v>2893.384687308963</v>
+        <v>3212.56999169331</v>
       </c>
       <c r="P23" t="n">
-        <v>3353.118925304185</v>
+        <v>3576.598686349258</v>
       </c>
       <c r="Q23" t="n">
-        <v>3621.138432174367</v>
+        <v>3634.426352466134</v>
       </c>
       <c r="R23" t="n">
-        <v>3634.426352466135</v>
+        <v>3634.426352466134</v>
       </c>
       <c r="S23" t="n">
-        <v>3567.088513527598</v>
+        <v>3567.088513527597</v>
       </c>
       <c r="T23" t="n">
         <v>3437.192394368712</v>
@@ -6023,13 +6023,13 @@
         <v>3267.476898265088</v>
       </c>
       <c r="V23" t="n">
-        <v>3020.372951561103</v>
+        <v>3020.372951561102</v>
       </c>
       <c r="W23" t="n">
-        <v>2751.563236930573</v>
+        <v>2751.563236930572</v>
       </c>
       <c r="X23" t="n">
-        <v>2462.056419309078</v>
+        <v>2462.056419309077</v>
       </c>
       <c r="Y23" t="n">
         <v>2155.87602797285</v>
@@ -6057,34 +6057,34 @@
         <v>351.744030752967</v>
       </c>
       <c r="G24" t="n">
-        <v>214.4181130895099</v>
+        <v>214.4181130895098</v>
       </c>
       <c r="H24" t="n">
         <v>114.6174286994926</v>
       </c>
       <c r="I24" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932267</v>
       </c>
       <c r="J24" t="n">
-        <v>77.21086384491242</v>
+        <v>202.0409888319172</v>
       </c>
       <c r="K24" t="n">
-        <v>163.0950824607069</v>
+        <v>549.7457920901644</v>
       </c>
       <c r="L24" t="n">
-        <v>683.5924373204679</v>
+        <v>1078.682205795553</v>
       </c>
       <c r="M24" t="n">
-        <v>1352.815505436086</v>
+        <v>1286.857260798671</v>
       </c>
       <c r="N24" t="n">
-        <v>1580.908979616675</v>
+        <v>1514.95073497926</v>
       </c>
       <c r="O24" t="n">
-        <v>2157.273847699948</v>
+        <v>2091.315603062533</v>
       </c>
       <c r="P24" t="n">
-        <v>2602.854399883726</v>
+        <v>2394.877885025236</v>
       </c>
       <c r="Q24" t="n">
         <v>2640.038914628136</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>542.3359079013226</v>
+        <v>542.3359079013221</v>
       </c>
       <c r="C25" t="n">
-        <v>457.3586656130003</v>
+        <v>457.3586656129999</v>
       </c>
       <c r="D25" t="n">
-        <v>391.2009668402492</v>
+        <v>391.2009668402487</v>
       </c>
       <c r="E25" t="n">
-        <v>327.2468138974407</v>
+        <v>327.2468138974403</v>
       </c>
       <c r="F25" t="n">
-        <v>264.3158070391149</v>
+        <v>264.3158070391146</v>
       </c>
       <c r="G25" t="n">
-        <v>179.764717207845</v>
+        <v>179.7647172078448</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3297839655513</v>
+        <v>110.3297839655512</v>
       </c>
       <c r="I25" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932267</v>
       </c>
       <c r="J25" t="n">
         <v>144.1663775722151</v>
@@ -6151,22 +6151,22 @@
         <v>338.5267164852526</v>
       </c>
       <c r="L25" t="n">
-        <v>619.7551156335569</v>
+        <v>619.7551156335568</v>
       </c>
       <c r="M25" t="n">
-        <v>922.1869875540644</v>
+        <v>922.1869875540641</v>
       </c>
       <c r="N25" t="n">
         <v>1224.818950418152</v>
       </c>
       <c r="O25" t="n">
-        <v>1494.613980352607</v>
+        <v>1494.613980352606</v>
       </c>
       <c r="P25" t="n">
         <v>1713.825977836459</v>
       </c>
       <c r="Q25" t="n">
-        <v>1807.478024731668</v>
+        <v>1807.478024731667</v>
       </c>
       <c r="R25" t="n">
         <v>1765.312137581444</v>
@@ -6184,13 +6184,13 @@
         <v>1126.347910251731</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8896808543556</v>
+        <v>920.8896808543553</v>
       </c>
       <c r="X25" t="n">
-        <v>776.8590705959228</v>
+        <v>776.8590705959226</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.0254320919777</v>
+        <v>640.0254320919771</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2008.702256398105</v>
+        <v>2008.702256398104</v>
       </c>
       <c r="C26" t="n">
-        <v>1702.419659804988</v>
+        <v>1702.419659804987</v>
       </c>
       <c r="D26" t="n">
         <v>1406.833881545532</v>
@@ -6212,10 +6212,10 @@
         <v>1083.725549294582</v>
       </c>
       <c r="F26" t="n">
-        <v>735.4195648522697</v>
+        <v>735.4195648522693</v>
       </c>
       <c r="G26" t="n">
-        <v>381.2275348314961</v>
+        <v>381.2275348314956</v>
       </c>
       <c r="H26" t="n">
         <v>127.894723230507</v>
@@ -6227,13 +6227,13 @@
         <v>285.7962952148955</v>
       </c>
       <c r="K26" t="n">
-        <v>716.1716253095676</v>
+        <v>716.1716253095678</v>
       </c>
       <c r="L26" t="n">
         <v>1302.366906224157</v>
       </c>
       <c r="M26" t="n">
-        <v>1971.228649453216</v>
+        <v>1971.228649453217</v>
       </c>
       <c r="N26" t="n">
         <v>2636.281277415333</v>
@@ -6242,7 +6242,7 @@
         <v>3219.083977497073</v>
       </c>
       <c r="P26" t="n">
-        <v>3678.818215492294</v>
+        <v>3678.818215492295</v>
       </c>
       <c r="Q26" t="n">
         <v>3946.837722362476</v>
@@ -6257,13 +6257,13 @@
         <v>3720.333643972242</v>
       </c>
       <c r="U26" t="n">
-        <v>3529.339127576328</v>
+        <v>3529.339127576329</v>
       </c>
       <c r="V26" t="n">
-        <v>3260.956160580052</v>
+        <v>3260.956160580053</v>
       </c>
       <c r="W26" t="n">
-        <v>2970.867425657233</v>
+        <v>2970.867425657234</v>
       </c>
       <c r="X26" t="n">
         <v>2660.081587743448</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.3218578763923</v>
+        <v>609.2359863149472</v>
       </c>
       <c r="C28" t="n">
-        <v>456.0655952957802</v>
+        <v>502.979723734335</v>
       </c>
       <c r="D28" t="n">
-        <v>368.6288762307393</v>
+        <v>415.5430046692941</v>
       </c>
       <c r="E28" t="n">
-        <v>283.3957029956409</v>
+        <v>334.6668537197468</v>
       </c>
       <c r="F28" t="n">
-        <v>228.8367435961868</v>
+        <v>334.6668537197468</v>
       </c>
       <c r="G28" t="n">
-        <v>228.8367435961868</v>
+        <v>228.8367435961869</v>
       </c>
       <c r="H28" t="n">
         <v>138.1227900616033</v>
@@ -6382,16 +6382,16 @@
         <v>79.2025128530849</v>
       </c>
       <c r="J28" t="n">
-        <v>129.8247955875041</v>
+        <v>129.824795587504</v>
       </c>
       <c r="K28" t="n">
-        <v>303.3295667120685</v>
+        <v>303.3295667120683</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7023980718996</v>
+        <v>563.7023980718993</v>
       </c>
       <c r="M28" t="n">
-        <v>845.2787022039336</v>
+        <v>845.2787022039333</v>
       </c>
       <c r="N28" t="n">
         <v>1127.055097279548</v>
@@ -6400,34 +6400,34 @@
         <v>1375.994559425529</v>
       </c>
       <c r="P28" t="n">
-        <v>1574.350989120909</v>
+        <v>1574.350989120908</v>
       </c>
       <c r="Q28" t="n">
-        <v>1647.147468227644</v>
+        <v>1647.147468227643</v>
       </c>
       <c r="R28" t="n">
-        <v>1647.147468227644</v>
+        <v>1583.70256078513</v>
       </c>
       <c r="S28" t="n">
-        <v>1647.147468227644</v>
+        <v>1440.629409668664</v>
       </c>
       <c r="T28" t="n">
-        <v>1484.611853986105</v>
+        <v>1278.093795427125</v>
       </c>
       <c r="U28" t="n">
-        <v>1258.14487870383</v>
+        <v>1051.62682014485</v>
       </c>
       <c r="V28" t="n">
-        <v>1066.140310845238</v>
+        <v>1051.62682014485</v>
       </c>
       <c r="W28" t="n">
-        <v>839.4030611555725</v>
+        <v>1051.62682014485</v>
       </c>
       <c r="X28" t="n">
-        <v>839.4030611555725</v>
+        <v>886.3171895941275</v>
       </c>
       <c r="Y28" t="n">
-        <v>681.2904023593371</v>
+        <v>728.2045307978922</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>735.41956485227</v>
       </c>
       <c r="G29" t="n">
-        <v>381.2275348314964</v>
+        <v>381.2275348314961</v>
       </c>
       <c r="H29" t="n">
-        <v>127.8947232305072</v>
+        <v>127.894723230507</v>
       </c>
       <c r="I29" t="n">
         <v>79.2025128530849</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7962952148955</v>
+        <v>285.7962952148951</v>
       </c>
       <c r="K29" t="n">
-        <v>716.1716253095678</v>
+        <v>716.1716253095674</v>
       </c>
       <c r="L29" t="n">
-        <v>1302.366906224157</v>
+        <v>1302.366906224156</v>
       </c>
       <c r="M29" t="n">
         <v>1971.228649453216</v>
       </c>
       <c r="N29" t="n">
-        <v>2636.281277415333</v>
+        <v>2636.281277415332</v>
       </c>
       <c r="O29" t="n">
-        <v>3219.083977497073</v>
+        <v>3219.083977497072</v>
       </c>
       <c r="P29" t="n">
         <v>3678.818215492294</v>
@@ -6494,19 +6494,19 @@
         <v>3720.333643972242</v>
       </c>
       <c r="U29" t="n">
-        <v>3529.339127576329</v>
+        <v>3529.339127576328</v>
       </c>
       <c r="V29" t="n">
         <v>3260.956160580053</v>
       </c>
       <c r="W29" t="n">
-        <v>2970.867425657233</v>
+        <v>2970.867425657234</v>
       </c>
       <c r="X29" t="n">
-        <v>2660.081587743448</v>
+        <v>2660.081587743449</v>
       </c>
       <c r="Y29" t="n">
-        <v>2332.622176114931</v>
+        <v>2332.622176114932</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>208.5549746356794</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2597778939266</v>
+        <v>369.0311416226863</v>
       </c>
       <c r="L30" t="n">
-        <v>1085.196191599316</v>
+        <v>530.8356134776506</v>
       </c>
       <c r="M30" t="n">
-        <v>1541.27667246532</v>
+        <v>1200.058681593268</v>
       </c>
       <c r="N30" t="n">
-        <v>1769.370146645909</v>
+        <v>1902.701106373975</v>
       </c>
       <c r="O30" t="n">
-        <v>1955.81131864522</v>
+        <v>2479.065974457248</v>
       </c>
       <c r="P30" t="n">
-        <v>2401.391870828998</v>
+        <v>2609.368385687489</v>
       </c>
       <c r="Q30" t="n">
         <v>2646.552900431899</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>474.772343800358</v>
+        <v>244.3790526422154</v>
       </c>
       <c r="C31" t="n">
-        <v>368.5160812197459</v>
+        <v>138.1227900616033</v>
       </c>
       <c r="D31" t="n">
-        <v>281.079362154705</v>
+        <v>138.1227900616033</v>
       </c>
       <c r="E31" t="n">
-        <v>195.8461889196067</v>
+        <v>138.1227900616033</v>
       </c>
       <c r="F31" t="n">
         <v>138.1227900616033</v>
@@ -6643,28 +6643,28 @@
         <v>1647.147468227644</v>
       </c>
       <c r="R31" t="n">
-        <v>1583.702560785131</v>
+        <v>1637.587444660656</v>
       </c>
       <c r="S31" t="n">
-        <v>1440.629409668664</v>
+        <v>1494.51429354419</v>
       </c>
       <c r="T31" t="n">
-        <v>1278.093795427126</v>
+        <v>1331.978679302651</v>
       </c>
       <c r="U31" t="n">
-        <v>1051.626820144851</v>
+        <v>1105.511704020376</v>
       </c>
       <c r="V31" t="n">
-        <v>859.622252286259</v>
+        <v>913.507136161784</v>
       </c>
       <c r="W31" t="n">
-        <v>632.8850025965933</v>
+        <v>686.7698864721183</v>
       </c>
       <c r="X31" t="n">
-        <v>632.8850025965933</v>
+        <v>521.4602559213955</v>
       </c>
       <c r="Y31" t="n">
-        <v>474.772343800358</v>
+        <v>363.3475971251602</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1942.227104496892</v>
+        <v>2020.927953358448</v>
       </c>
       <c r="C32" t="n">
-        <v>1657.223528196065</v>
+        <v>1735.924377057621</v>
       </c>
       <c r="D32" t="n">
-        <v>1382.9167702289</v>
+        <v>1461.617619090455</v>
       </c>
       <c r="E32" t="n">
-        <v>1081.08745827024</v>
+        <v>1159.788307131795</v>
       </c>
       <c r="F32" t="n">
-        <v>754.0604941202171</v>
+        <v>832.7613429817723</v>
       </c>
       <c r="G32" t="n">
-        <v>421.1474843917333</v>
+        <v>499.8483332532885</v>
       </c>
       <c r="H32" t="n">
-        <v>189.093693083034</v>
+        <v>183.8356013050045</v>
       </c>
       <c r="I32" t="n">
         <v>77.72156235831707</v>
       </c>
       <c r="J32" t="n">
-        <v>284.3153447201277</v>
+        <v>225.0366907682726</v>
       </c>
       <c r="K32" t="n">
-        <v>714.6906748147999</v>
+        <v>655.4120208629448</v>
       </c>
       <c r="L32" t="n">
-        <v>1300.885955729389</v>
+        <v>1241.607301777534</v>
       </c>
       <c r="M32" t="n">
-        <v>1969.747698958448</v>
+        <v>1910.469045006593</v>
       </c>
       <c r="N32" t="n">
-        <v>2634.800326920565</v>
+        <v>2575.52167296871</v>
       </c>
       <c r="O32" t="n">
         <v>3158.32437305045</v>
@@ -6728,22 +6728,22 @@
         <v>3818.740278977316</v>
       </c>
       <c r="T32" t="n">
-        <v>3610.143310956877</v>
+        <v>3688.844159818431</v>
       </c>
       <c r="U32" t="n">
-        <v>3440.427814853253</v>
+        <v>3435.169723075222</v>
       </c>
       <c r="V32" t="n">
-        <v>3109.364927509682</v>
+        <v>3188.065776371237</v>
       </c>
       <c r="W32" t="n">
-        <v>2840.555212879152</v>
+        <v>2919.256061740707</v>
       </c>
       <c r="X32" t="n">
-        <v>2551.048395257657</v>
+        <v>2629.749244119212</v>
       </c>
       <c r="Y32" t="n">
-        <v>2244.86800392143</v>
+        <v>2323.568852782985</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>77.72156235831707</v>
       </c>
       <c r="J33" t="n">
-        <v>82.2438991539068</v>
+        <v>82.24389915390682</v>
       </c>
       <c r="K33" t="n">
-        <v>412.7605571780831</v>
+        <v>168.1281177697013</v>
       </c>
       <c r="L33" t="n">
-        <v>941.696970883472</v>
+        <v>529.354662982882</v>
       </c>
       <c r="M33" t="n">
-        <v>1149.87202588659</v>
+        <v>1198.5777310985</v>
       </c>
       <c r="N33" t="n">
-        <v>1377.965500067179</v>
+        <v>1901.220155879207</v>
       </c>
       <c r="O33" t="n">
-        <v>1954.330368150452</v>
+        <v>2477.58502396248</v>
       </c>
       <c r="P33" t="n">
-        <v>2399.91092033423</v>
+        <v>2607.887435192721</v>
       </c>
       <c r="Q33" t="n">
         <v>2645.071949937131</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>547.3689432103165</v>
+        <v>547.3689432103168</v>
       </c>
       <c r="C34" t="n">
-        <v>462.3917009219942</v>
+        <v>462.3917009219946</v>
       </c>
       <c r="D34" t="n">
-        <v>396.2340021492432</v>
+        <v>396.2340021492435</v>
       </c>
       <c r="E34" t="n">
-        <v>332.2798492064347</v>
+        <v>332.279849206435</v>
       </c>
       <c r="F34" t="n">
-        <v>269.348842348109</v>
+        <v>269.3488423481093</v>
       </c>
       <c r="G34" t="n">
-        <v>184.797752516839</v>
+        <v>184.7977525168393</v>
       </c>
       <c r="H34" t="n">
-        <v>115.3628192745453</v>
+        <v>115.3628192745456</v>
       </c>
       <c r="I34" t="n">
         <v>77.72156235831707</v>
@@ -6859,13 +6859,13 @@
         <v>149.1994128812095</v>
       </c>
       <c r="K34" t="n">
-        <v>343.5597517942472</v>
+        <v>343.5597517942471</v>
       </c>
       <c r="L34" t="n">
         <v>624.7881509425515</v>
       </c>
       <c r="M34" t="n">
-        <v>927.2200228630587</v>
+        <v>927.2200228630588</v>
       </c>
       <c r="N34" t="n">
         <v>1229.851985727146</v>
@@ -6889,19 +6889,19 @@
         <v>1507.294448117013</v>
       </c>
       <c r="U34" t="n">
-        <v>1302.106493127028</v>
+        <v>1302.106493127029</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.380945560726</v>
+        <v>1131.380945560727</v>
       </c>
       <c r="W34" t="n">
-        <v>925.9227161633501</v>
+        <v>925.9227161633505</v>
       </c>
       <c r="X34" t="n">
-        <v>781.8921059049173</v>
+        <v>781.8921059049178</v>
       </c>
       <c r="Y34" t="n">
-        <v>645.0584674009716</v>
+        <v>645.0584674009719</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1853.235128548312</v>
+        <v>1853.235128548313</v>
       </c>
       <c r="C35" t="n">
-        <v>1568.231552247485</v>
+        <v>1568.231552247487</v>
       </c>
       <c r="D35" t="n">
-        <v>1293.924794280319</v>
+        <v>1293.924794280321</v>
       </c>
       <c r="E35" t="n">
-        <v>992.0954823216596</v>
+        <v>992.0954823216609</v>
       </c>
       <c r="F35" t="n">
-        <v>665.0685181716367</v>
+        <v>665.0685181716381</v>
       </c>
       <c r="G35" t="n">
-        <v>332.1555084431529</v>
+        <v>332.1555084431543</v>
       </c>
       <c r="H35" t="n">
         <v>100.101717134455</v>
       </c>
       <c r="I35" t="n">
-        <v>72.68852704932269</v>
+        <v>72.6885270493227</v>
       </c>
       <c r="J35" t="n">
-        <v>111.8766603907802</v>
+        <v>279.2823094111333</v>
       </c>
       <c r="K35" t="n">
-        <v>542.2519904854524</v>
+        <v>709.6576395058054</v>
       </c>
       <c r="L35" t="n">
-        <v>1128.447271400041</v>
+        <v>1295.852920420394</v>
       </c>
       <c r="M35" t="n">
-        <v>1797.309014629101</v>
+        <v>1964.714663649454</v>
       </c>
       <c r="N35" t="n">
-        <v>2462.361642591217</v>
+        <v>2629.76729161157</v>
       </c>
       <c r="O35" t="n">
-        <v>3045.164342672957</v>
+        <v>2893.384687308963</v>
       </c>
       <c r="P35" t="n">
-        <v>3504.898580668179</v>
+        <v>3353.118925304185</v>
       </c>
       <c r="Q35" t="n">
-        <v>3634.426352466134</v>
+        <v>3621.138432174366</v>
       </c>
       <c r="R35" t="n">
-        <v>3634.426352466134</v>
+        <v>3634.426352466135</v>
       </c>
       <c r="S35" t="n">
-        <v>3567.088513527596</v>
+        <v>3567.088513527597</v>
       </c>
       <c r="T35" t="n">
-        <v>3437.192394368711</v>
+        <v>3437.192394368712</v>
       </c>
       <c r="U35" t="n">
         <v>3267.476898265088</v>
@@ -6974,13 +6974,13 @@
         <v>3020.372951561102</v>
       </c>
       <c r="W35" t="n">
-        <v>2751.563236930572</v>
+        <v>2751.563236930573</v>
       </c>
       <c r="X35" t="n">
-        <v>2462.056419309077</v>
+        <v>2462.056419309078</v>
       </c>
       <c r="Y35" t="n">
-        <v>2155.876027972849</v>
+        <v>2155.87602797285</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>114.6174286994926</v>
       </c>
       <c r="I36" t="n">
-        <v>72.68852704932269</v>
+        <v>72.6885270493227</v>
       </c>
       <c r="J36" t="n">
-        <v>77.21086384491241</v>
+        <v>202.0409888319172</v>
       </c>
       <c r="K36" t="n">
-        <v>424.9156671031596</v>
+        <v>549.7457920901643</v>
       </c>
       <c r="L36" t="n">
-        <v>953.8520808085485</v>
+        <v>1078.682205795553</v>
       </c>
       <c r="M36" t="n">
-        <v>1162.027135811667</v>
+        <v>1286.857260798671</v>
       </c>
       <c r="N36" t="n">
-        <v>1390.120609992255</v>
+        <v>1514.95073497926</v>
       </c>
       <c r="O36" t="n">
-        <v>1966.485478075529</v>
+        <v>1949.297332841457</v>
       </c>
       <c r="P36" t="n">
         <v>2394.877885025236</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>542.3359079013226</v>
+        <v>542.3359079013221</v>
       </c>
       <c r="C37" t="n">
-        <v>457.3586656130003</v>
+        <v>457.3586656129998</v>
       </c>
       <c r="D37" t="n">
-        <v>391.2009668402492</v>
+        <v>391.2009668402487</v>
       </c>
       <c r="E37" t="n">
-        <v>327.2468138974407</v>
+        <v>327.2468138974403</v>
       </c>
       <c r="F37" t="n">
-        <v>264.315807039115</v>
+        <v>264.3158070391146</v>
       </c>
       <c r="G37" t="n">
-        <v>179.764717207845</v>
+        <v>179.7647172078446</v>
       </c>
       <c r="H37" t="n">
         <v>110.3297839655513</v>
       </c>
       <c r="I37" t="n">
-        <v>72.68852704932269</v>
+        <v>72.6885270493227</v>
       </c>
       <c r="J37" t="n">
-        <v>144.1663775722151</v>
+        <v>144.166377572215</v>
       </c>
       <c r="K37" t="n">
         <v>338.5267164852526</v>
       </c>
       <c r="L37" t="n">
-        <v>619.755115633557</v>
+        <v>619.7551156335569</v>
       </c>
       <c r="M37" t="n">
-        <v>922.1869875540641</v>
+        <v>922.1869875540642</v>
       </c>
       <c r="N37" t="n">
         <v>1224.818950418152</v>
@@ -7129,16 +7129,16 @@
         <v>1297.073457818034</v>
       </c>
       <c r="V37" t="n">
-        <v>1126.347910251732</v>
+        <v>1126.347910251731</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8896808543559</v>
+        <v>920.8896808543554</v>
       </c>
       <c r="X37" t="n">
-        <v>776.8590705959232</v>
+        <v>776.8590705959227</v>
       </c>
       <c r="Y37" t="n">
-        <v>640.0254320919777</v>
+        <v>640.0254320919772</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1853.235128548313</v>
+        <v>1853.235128548314</v>
       </c>
       <c r="C38" t="n">
-        <v>1568.231552247486</v>
+        <v>1568.231552247487</v>
       </c>
       <c r="D38" t="n">
-        <v>1293.92479428032</v>
+        <v>1293.924794280321</v>
       </c>
       <c r="E38" t="n">
-        <v>992.0954823216606</v>
+        <v>992.0954823216613</v>
       </c>
       <c r="F38" t="n">
-        <v>665.0685181716376</v>
+        <v>665.0685181716383</v>
       </c>
       <c r="G38" t="n">
-        <v>332.1555084431538</v>
+        <v>332.1555084431544</v>
       </c>
       <c r="H38" t="n">
         <v>100.101717134455</v>
       </c>
       <c r="I38" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932272</v>
       </c>
       <c r="J38" t="n">
-        <v>111.8766603907803</v>
+        <v>279.2823094111333</v>
       </c>
       <c r="K38" t="n">
-        <v>542.2519904854524</v>
+        <v>709.6576395058055</v>
       </c>
       <c r="L38" t="n">
-        <v>1128.447271400041</v>
+        <v>1295.852920420394</v>
       </c>
       <c r="M38" t="n">
-        <v>1797.309014629101</v>
+        <v>1964.714663649454</v>
       </c>
       <c r="N38" t="n">
-        <v>2462.361642591217</v>
+        <v>2629.767291611571</v>
       </c>
       <c r="O38" t="n">
-        <v>3045.164342672957</v>
+        <v>2906.672607600732</v>
       </c>
       <c r="P38" t="n">
-        <v>3366.406845595953</v>
+        <v>3366.406845595954</v>
       </c>
       <c r="Q38" t="n">
-        <v>3634.426352466135</v>
+        <v>3634.426352466136</v>
       </c>
       <c r="R38" t="n">
-        <v>3634.426352466135</v>
+        <v>3634.426352466136</v>
       </c>
       <c r="S38" t="n">
-        <v>3567.088513527597</v>
+        <v>3567.088513527598</v>
       </c>
       <c r="T38" t="n">
-        <v>3437.192394368712</v>
+        <v>3437.192394368713</v>
       </c>
       <c r="U38" t="n">
         <v>3267.476898265089</v>
@@ -7214,7 +7214,7 @@
         <v>2751.563236930574</v>
       </c>
       <c r="X38" t="n">
-        <v>2462.056419309078</v>
+        <v>2462.056419309079</v>
       </c>
       <c r="Y38" t="n">
         <v>2155.876027972851</v>
@@ -7248,13 +7248,13 @@
         <v>114.6174286994926</v>
       </c>
       <c r="I39" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932272</v>
       </c>
       <c r="J39" t="n">
         <v>202.0409888319172</v>
       </c>
       <c r="K39" t="n">
-        <v>549.7457920901644</v>
+        <v>549.7457920901645</v>
       </c>
       <c r="L39" t="n">
         <v>1078.682205795553</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>542.3359079013228</v>
+        <v>542.3359079013233</v>
       </c>
       <c r="C40" t="n">
-        <v>457.3586656130005</v>
+        <v>457.3586656130008</v>
       </c>
       <c r="D40" t="n">
-        <v>391.2009668402494</v>
+        <v>391.2009668402496</v>
       </c>
       <c r="E40" t="n">
-        <v>327.2468138974409</v>
+        <v>327.2468138974411</v>
       </c>
       <c r="F40" t="n">
-        <v>264.3158070391151</v>
+        <v>264.3158070391153</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7647172078451</v>
+        <v>179.7647172078452</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3297839655513</v>
+        <v>110.3297839655514</v>
       </c>
       <c r="I40" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932272</v>
       </c>
       <c r="J40" t="n">
         <v>144.1663775722151</v>
@@ -7339,7 +7339,7 @@
         <v>619.7551156335569</v>
       </c>
       <c r="M40" t="n">
-        <v>922.1869875540642</v>
+        <v>922.1869875540641</v>
       </c>
       <c r="N40" t="n">
         <v>1224.818950418152</v>
@@ -7348,34 +7348,34 @@
         <v>1494.613980352606</v>
       </c>
       <c r="P40" t="n">
-        <v>1713.825977836459</v>
+        <v>1713.825977836461</v>
       </c>
       <c r="Q40" t="n">
-        <v>1807.478024731668</v>
+        <v>1807.478024731669</v>
       </c>
       <c r="R40" t="n">
-        <v>1765.312137581445</v>
+        <v>1765.312137581446</v>
       </c>
       <c r="S40" t="n">
-        <v>1643.518006757269</v>
+        <v>1643.51800675727</v>
       </c>
       <c r="T40" t="n">
-        <v>1502.261412808019</v>
+        <v>1502.26141280802</v>
       </c>
       <c r="U40" t="n">
         <v>1297.073457818035</v>
       </c>
       <c r="V40" t="n">
-        <v>1126.347910251732</v>
+        <v>1126.347910251733</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8896808543561</v>
+        <v>920.8896808543569</v>
       </c>
       <c r="X40" t="n">
-        <v>776.8590705959234</v>
+        <v>776.8590705959241</v>
       </c>
       <c r="Y40" t="n">
-        <v>640.0254320919779</v>
+        <v>640.0254320919785</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1293.92479428032</v>
       </c>
       <c r="E41" t="n">
-        <v>992.0954823216603</v>
+        <v>992.0954823216605</v>
       </c>
       <c r="F41" t="n">
-        <v>665.0685181716374</v>
+        <v>665.0685181716376</v>
       </c>
       <c r="G41" t="n">
-        <v>332.1555084431536</v>
+        <v>332.1555084431538</v>
       </c>
       <c r="H41" t="n">
         <v>100.101717134455</v>
       </c>
       <c r="I41" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932272</v>
       </c>
       <c r="J41" t="n">
         <v>279.2823094111333</v>
@@ -7421,37 +7421,37 @@
         <v>1964.714663649454</v>
       </c>
       <c r="N41" t="n">
-        <v>2629.76729161157</v>
+        <v>2323.869907518992</v>
       </c>
       <c r="O41" t="n">
-        <v>3212.56999169331</v>
+        <v>2906.672607600732</v>
       </c>
       <c r="P41" t="n">
-        <v>3563.31076605749</v>
+        <v>3366.406845595954</v>
       </c>
       <c r="Q41" t="n">
-        <v>3621.138432174366</v>
+        <v>3634.426352466136</v>
       </c>
       <c r="R41" t="n">
-        <v>3634.426352466135</v>
+        <v>3634.426352466136</v>
       </c>
       <c r="S41" t="n">
-        <v>3567.088513527597</v>
+        <v>3567.088513527598</v>
       </c>
       <c r="T41" t="n">
-        <v>3437.192394368712</v>
+        <v>3437.192394368713</v>
       </c>
       <c r="U41" t="n">
         <v>3267.476898265088</v>
       </c>
       <c r="V41" t="n">
-        <v>3020.372951561102</v>
+        <v>3020.372951561103</v>
       </c>
       <c r="W41" t="n">
-        <v>2751.563236930572</v>
+        <v>2751.563236930573</v>
       </c>
       <c r="X41" t="n">
-        <v>2462.056419309077</v>
+        <v>2462.056419309078</v>
       </c>
       <c r="Y41" t="n">
         <v>2155.87602797285</v>
@@ -7482,31 +7482,31 @@
         <v>214.4181130895099</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6174286994926</v>
+        <v>114.6174286994927</v>
       </c>
       <c r="I42" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932272</v>
       </c>
       <c r="J42" t="n">
-        <v>77.21086384491242</v>
+        <v>77.21086384491244</v>
       </c>
       <c r="K42" t="n">
-        <v>163.0950824607069</v>
+        <v>424.9156671031596</v>
       </c>
       <c r="L42" t="n">
-        <v>324.8995543156711</v>
+        <v>953.8520808085485</v>
       </c>
       <c r="M42" t="n">
-        <v>878.2665548359677</v>
+        <v>1162.027135811667</v>
       </c>
       <c r="N42" t="n">
-        <v>1580.908979616675</v>
+        <v>1390.120609992255</v>
       </c>
       <c r="O42" t="n">
-        <v>2157.273847699948</v>
+        <v>1966.485478075529</v>
       </c>
       <c r="P42" t="n">
-        <v>2602.854399883726</v>
+        <v>2412.066030259307</v>
       </c>
       <c r="Q42" t="n">
         <v>2640.038914628136</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.3359079013228</v>
+        <v>542.3359079013223</v>
       </c>
       <c r="C43" t="n">
-        <v>457.3586656130005</v>
+        <v>457.3586656130001</v>
       </c>
       <c r="D43" t="n">
-        <v>391.2009668402494</v>
+        <v>391.200966840249</v>
       </c>
       <c r="E43" t="n">
-        <v>327.246813897441</v>
+        <v>327.2468138974405</v>
       </c>
       <c r="F43" t="n">
-        <v>264.3158070391153</v>
+        <v>264.3158070391147</v>
       </c>
       <c r="G43" t="n">
-        <v>179.7647172078453</v>
+        <v>179.7647172078447</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3297839655512</v>
+        <v>110.3297839655513</v>
       </c>
       <c r="I43" t="n">
-        <v>72.6885270493227</v>
+        <v>72.68852704932272</v>
       </c>
       <c r="J43" t="n">
-        <v>144.1663775722151</v>
+        <v>144.1663775722152</v>
       </c>
       <c r="K43" t="n">
-        <v>338.5267164852527</v>
+        <v>338.5267164852528</v>
       </c>
       <c r="L43" t="n">
-        <v>619.7551156335572</v>
+        <v>619.7551156335571</v>
       </c>
       <c r="M43" t="n">
-        <v>922.1869875540646</v>
+        <v>922.1869875540644</v>
       </c>
       <c r="N43" t="n">
         <v>1224.818950418152</v>
@@ -7606,13 +7606,13 @@
         <v>1126.347910251732</v>
       </c>
       <c r="W43" t="n">
-        <v>920.8896808543561</v>
+        <v>920.8896808543557</v>
       </c>
       <c r="X43" t="n">
-        <v>776.8590705959234</v>
+        <v>776.859070595923</v>
       </c>
       <c r="Y43" t="n">
-        <v>640.0254320919779</v>
+        <v>640.0254320919774</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1568.231552247486</v>
       </c>
       <c r="D44" t="n">
-        <v>1293.92479428032</v>
+        <v>1293.924794280321</v>
       </c>
       <c r="E44" t="n">
-        <v>992.0954823216606</v>
+        <v>992.0954823216609</v>
       </c>
       <c r="F44" t="n">
-        <v>665.0685181716376</v>
+        <v>665.0685181716381</v>
       </c>
       <c r="G44" t="n">
-        <v>332.1555084431542</v>
+        <v>332.1555084431543</v>
       </c>
       <c r="H44" t="n">
-        <v>100.1017171344549</v>
+        <v>100.101717134455</v>
       </c>
       <c r="I44" t="n">
         <v>72.6885270493227</v>
@@ -7658,16 +7658,16 @@
         <v>1964.714663649454</v>
       </c>
       <c r="N44" t="n">
-        <v>2323.869907518991</v>
+        <v>2629.76729161157</v>
       </c>
       <c r="O44" t="n">
-        <v>2906.672607600731</v>
+        <v>3212.56999169331</v>
       </c>
       <c r="P44" t="n">
-        <v>3366.406845595953</v>
+        <v>3353.723508598764</v>
       </c>
       <c r="Q44" t="n">
-        <v>3634.426352466135</v>
+        <v>3621.138432174367</v>
       </c>
       <c r="R44" t="n">
         <v>3634.426352466135</v>
@@ -7682,16 +7682,16 @@
         <v>3267.476898265088</v>
       </c>
       <c r="V44" t="n">
-        <v>3020.372951561102</v>
+        <v>3020.372951561103</v>
       </c>
       <c r="W44" t="n">
-        <v>2751.563236930572</v>
+        <v>2751.563236930573</v>
       </c>
       <c r="X44" t="n">
-        <v>2462.056419309077</v>
+        <v>2462.056419309078</v>
       </c>
       <c r="Y44" t="n">
-        <v>2155.87602797285</v>
+        <v>2155.876027972851</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>72.6885270493227</v>
       </c>
       <c r="J45" t="n">
-        <v>202.0409888319172</v>
+        <v>77.21086384491242</v>
       </c>
       <c r="K45" t="n">
-        <v>549.7457920901644</v>
+        <v>424.9156671031596</v>
       </c>
       <c r="L45" t="n">
-        <v>1078.682205795553</v>
+        <v>953.8520808085485</v>
       </c>
       <c r="M45" t="n">
-        <v>1534.762686661557</v>
+        <v>1162.027135811667</v>
       </c>
       <c r="N45" t="n">
-        <v>1762.856160842146</v>
+        <v>1390.120609992255</v>
       </c>
       <c r="O45" t="n">
-        <v>1949.297332841457</v>
+        <v>1966.485478075529</v>
       </c>
       <c r="P45" t="n">
-        <v>2394.877885025236</v>
+        <v>2412.066030259307</v>
       </c>
       <c r="Q45" t="n">
         <v>2640.038914628136</v>
@@ -7798,7 +7798,7 @@
         <v>179.7647172078449</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3297839655512</v>
+        <v>110.3297839655513</v>
       </c>
       <c r="I46" t="n">
         <v>72.6885270493227</v>
@@ -7807,22 +7807,22 @@
         <v>144.1663775722151</v>
       </c>
       <c r="K46" t="n">
-        <v>338.5267164852527</v>
+        <v>338.5267164852526</v>
       </c>
       <c r="L46" t="n">
-        <v>619.7551156335571</v>
+        <v>619.755115633557</v>
       </c>
       <c r="M46" t="n">
-        <v>922.1869875540646</v>
+        <v>922.1869875540641</v>
       </c>
       <c r="N46" t="n">
         <v>1224.818950418152</v>
       </c>
       <c r="O46" t="n">
-        <v>1494.613980352607</v>
+        <v>1494.613980352606</v>
       </c>
       <c r="P46" t="n">
-        <v>1713.82597783646</v>
+        <v>1713.825977836459</v>
       </c>
       <c r="Q46" t="n">
         <v>1807.478024731668</v>
@@ -7843,13 +7843,13 @@
         <v>1126.347910251731</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8896808543553</v>
+        <v>920.8896808543554</v>
       </c>
       <c r="X46" t="n">
         <v>776.8590705959227</v>
       </c>
       <c r="Y46" t="n">
-        <v>640.0254320919773</v>
+        <v>640.0254320919774</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L2" t="n">
-        <v>260.3515428840269</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N2" t="n">
         <v>255.0333547912217</v>
       </c>
       <c r="O2" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8067,7 +8067,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O3" t="n">
         <v>168.2165356390753</v>
@@ -8076,7 +8076,7 @@
         <v>159.5946986089611</v>
       </c>
       <c r="Q3" t="n">
-        <v>164.5669020000612</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>244.6749789590202</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>261.3867061646181</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M5" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>255.0333547912217</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,13 +8298,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O6" t="n">
         <v>168.2165356390753</v>
@@ -8313,7 +8313,7 @@
         <v>159.5946986089611</v>
       </c>
       <c r="Q6" t="n">
-        <v>164.5669020000612</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>272.4472657249869</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
         <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>127.1041351248048</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8708,10 +8708,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>72.42434917280812</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>52.29427816412556</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>309.9384667756665</v>
       </c>
       <c r="O12" t="n">
-        <v>250.4095210736222</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5262768336622</v>
+        <v>127.1041351248048</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>52.29427816412556</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>250.4095210736222</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>250.4095210736222</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>184.2547710840682</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>58.39078289471755</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>52.29427816412556</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>247.1034741498802</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>66.62448953274188</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>240.9095397756487</v>
+        <v>71.81292460357358</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>474.0075712670188</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>250.4095210736222</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>296.2007502968789</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>225.1264421722155</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>52.29427816412556</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>362.3160434391887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>175.0099704368297</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>75.34540239516417</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>250.4095210736226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>109.2191869378767</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>320.9227530285486</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>52.29427816412556</v>
+        <v>52.29427816412553</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>247.1034741498807</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>201.4364377355722</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10598,16 +10598,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>58.39078289471863</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>72.42434917280721</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>52.29427816412556</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>250.4095210736224</v>
       </c>
       <c r="P36" t="n">
-        <v>301.1010057772385</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10835,16 +10835,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>71.81292460357449</v>
       </c>
       <c r="P38" t="n">
-        <v>181.9080666843853</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>52.29427816412556</v>
+        <v>52.29427816412553</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>128.3596677528142</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>211.7043004633595</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>52.29427816412556</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>348.6787328456351</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>192.7155248731505</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,19 +11306,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>128.3596677528132</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>211.7043004633602</v>
       </c>
       <c r="R44" t="n">
-        <v>52.29427816412556</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>250.4095210736222</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>192.7155248731505</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>333.050112645167</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>231.5905750128399</v>
+        <v>86.69225522113123</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>291.2196756532852</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>88.62548044195373</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>128.1508828068248</v>
+        <v>128.1508828068247</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>229.5047634002608</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>327.608039741897</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>158.1990512064213</v>
       </c>
       <c r="C13" t="n">
-        <v>145.6138921231119</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>56.85869414845062</v>
       </c>
       <c r="E13" t="n">
         <v>124.8010336710532</v>
@@ -23428,13 +23428,13 @@
         <v>123.7881190474153</v>
       </c>
       <c r="G13" t="n">
-        <v>145.1920011906302</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>130.2270061675435</v>
       </c>
       <c r="I13" t="n">
-        <v>98.75126660473913</v>
+        <v>98.75126660473907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>103.2306505363942</v>
       </c>
       <c r="S13" t="n">
-        <v>182.0626117736071</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>201.3304502674295</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>76.49297284858804</v>
+        <v>204.0767264135212</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>204.3432465612622</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>360.2974410967458</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>391.0703018888718</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>128.1508828068248</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>203.6179922343241</v>
+        <v>229.5047634002608</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>327.6080397418971</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>158.1990512064214</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>145.6138921231119</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>124.8010336710532</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>122.3934238202378</v>
+        <v>123.7881190474153</v>
       </c>
       <c r="G16" t="n">
         <v>145.1920011906302</v>
@@ -23671,7 +23671,7 @@
         <v>130.2270061675436</v>
       </c>
       <c r="I16" t="n">
-        <v>98.75126660473913</v>
+        <v>98.75126660473916</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>103.2306505363942</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>182.0626117736071</v>
+        <v>182.0626117736072</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>171.2838030790835</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>264.8900693610751</v>
       </c>
       <c r="X16" t="n">
         <v>204.0767264135212</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.9517243765789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.31345206269576</v>
       </c>
       <c r="F28" t="n">
-        <v>29.35455707364935</v>
+        <v>83.36792687910943</v>
       </c>
       <c r="G28" t="n">
-        <v>104.7718090223242</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>62.8104583680883</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>141.6424196053012</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>190.0845221800062</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>224.4698771927692</v>
       </c>
       <c r="X28" t="n">
-        <v>163.6565342452153</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>117.7788590381154</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>86.56235187439049</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.3808415027473</v>
       </c>
       <c r="F31" t="n">
-        <v>26.22176200968634</v>
+        <v>83.36792687910938</v>
       </c>
       <c r="G31" t="n">
         <v>104.7718090223242</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>53.34603503676962</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>163.6565342452153</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>944637.0845069892</v>
+        <v>944637.0845069893</v>
       </c>
     </row>
     <row r="7">
@@ -26314,25 +26314,25 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>374034.0081399409</v>
+        <v>374034.0081399408</v>
       </c>
       <c r="F2" t="n">
         <v>374034.0081399409</v>
       </c>
       <c r="G2" t="n">
+        <v>431046.9291787489</v>
+      </c>
+      <c r="H2" t="n">
         <v>431046.9291787487</v>
       </c>
-      <c r="H2" t="n">
-        <v>431046.9291787488</v>
-      </c>
       <c r="I2" t="n">
-        <v>431046.9291787483</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="J2" t="n">
         <v>424718.7583719849</v>
@@ -26347,10 +26347,10 @@
         <v>431046.9291787487</v>
       </c>
       <c r="N2" t="n">
-        <v>431046.9291787492</v>
+        <v>431046.9291787493</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787487</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49189.13780613827</v>
+        <v>49189.13780613831</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>28461.07084874164</v>
+        <v>28461.0708487417</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66042.1218776318</v>
+        <v>66042.12187763184</v>
       </c>
       <c r="M3" t="n">
         <v>199752.3256601164</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>453.3591089192669</v>
+        <v>453.3591089192612</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>395093.4645752797</v>
       </c>
       <c r="C4" t="n">
-        <v>395093.4645752797</v>
+        <v>395093.4645752796</v>
       </c>
       <c r="D4" t="n">
         <v>392085.4318580095</v>
       </c>
       <c r="E4" t="n">
-        <v>94385.77424442922</v>
+        <v>94385.77424442925</v>
       </c>
       <c r="F4" t="n">
-        <v>94385.77424442921</v>
+        <v>94385.77424442918</v>
       </c>
       <c r="G4" t="n">
         <v>156520.6153259567</v>
@@ -26439,7 +26439,7 @@
         <v>156520.6153259567</v>
       </c>
       <c r="J4" t="n">
-        <v>141686.6693031826</v>
+        <v>141686.6693031825</v>
       </c>
       <c r="K4" t="n">
         <v>141686.6693031826</v>
@@ -26451,7 +26451,7 @@
         <v>156520.6153259567</v>
       </c>
       <c r="N4" t="n">
-        <v>156520.6153259567</v>
+        <v>156520.6153259566</v>
       </c>
       <c r="O4" t="n">
         <v>156520.6153259567</v>
@@ -26485,10 +26485,10 @@
         <v>76327.51598664824</v>
       </c>
       <c r="H5" t="n">
-        <v>76327.51598664824</v>
+        <v>76327.51598664823</v>
       </c>
       <c r="I5" t="n">
-        <v>76327.51598664824</v>
+        <v>76327.51598664823</v>
       </c>
       <c r="J5" t="n">
         <v>79507.12830012452</v>
@@ -26506,7 +26506,7 @@
         <v>76327.51598664824</v>
       </c>
       <c r="O5" t="n">
-        <v>76327.51598664824</v>
+        <v>76327.51598664826</v>
       </c>
       <c r="P5" t="n">
         <v>76327.51598664824</v>
@@ -26522,43 +26522,43 @@
         <v>-7817.797947182837</v>
       </c>
       <c r="C6" t="n">
-        <v>768.1508988355126</v>
+        <v>768.1508988354544</v>
       </c>
       <c r="D6" t="n">
         <v>-3099.684412289484</v>
       </c>
       <c r="E6" t="n">
-        <v>-586431.8614712071</v>
+        <v>-586703.351571392</v>
       </c>
       <c r="F6" t="n">
-        <v>208489.8199416438</v>
+        <v>208218.329841459</v>
       </c>
       <c r="G6" t="n">
-        <v>149009.6600600055</v>
+        <v>149009.6600600056</v>
       </c>
       <c r="H6" t="n">
         <v>198198.7978661439</v>
       </c>
       <c r="I6" t="n">
-        <v>198198.7978661434</v>
+        <v>198198.7978661436</v>
       </c>
       <c r="J6" t="n">
-        <v>175063.8899199362</v>
+        <v>175033.7557732374</v>
       </c>
       <c r="K6" t="n">
-        <v>203524.9607686777</v>
+        <v>203494.8266219789</v>
       </c>
       <c r="L6" t="n">
-        <v>134437.1367908719</v>
+        <v>134437.136790872</v>
       </c>
       <c r="M6" t="n">
-        <v>-1553.527793972666</v>
+        <v>-1553.527793972724</v>
       </c>
       <c r="N6" t="n">
-        <v>198198.7978661442</v>
+        <v>198198.7978661445</v>
       </c>
       <c r="O6" t="n">
-        <v>197745.4387572245</v>
+        <v>197745.4387572246</v>
       </c>
       <c r="P6" t="n">
         <v>198198.7978661438</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="F2" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="G2" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="H2" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="I2" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="J2" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="K2" t="n">
         <v>62.05312114382188</v>
       </c>
       <c r="L2" t="n">
+        <v>83.11935123318879</v>
+      </c>
+      <c r="M2" t="n">
+        <v>83.11935123318879</v>
+      </c>
+      <c r="N2" t="n">
+        <v>83.1193512331887</v>
+      </c>
+      <c r="O2" t="n">
+        <v>83.11935123318877</v>
+      </c>
+      <c r="P2" t="n">
         <v>83.11935123318878</v>
-      </c>
-      <c r="M2" t="n">
-        <v>83.11935123318878</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83.11935123318875</v>
-      </c>
-      <c r="O2" t="n">
-        <v>83.11935123318879</v>
-      </c>
-      <c r="P2" t="n">
-        <v>83.11935123318882</v>
       </c>
     </row>
     <row r="3">
@@ -26765,13 +26765,13 @@
         <v>646.6272793733966</v>
       </c>
       <c r="L3" t="n">
-        <v>646.6272793733966</v>
+        <v>646.6272793733967</v>
       </c>
       <c r="M3" t="n">
-        <v>646.6272793733966</v>
+        <v>646.6272793733965</v>
       </c>
       <c r="N3" t="n">
-        <v>646.6272793733966</v>
+        <v>646.6272793733967</v>
       </c>
       <c r="O3" t="n">
         <v>646.6272793733966</v>
@@ -26796,19 +26796,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>908.6065881165338</v>
+        <v>908.6065881165337</v>
       </c>
       <c r="F4" t="n">
-        <v>908.6065881165338</v>
+        <v>908.6065881165337</v>
       </c>
       <c r="G4" t="n">
-        <v>908.6065881165338</v>
+        <v>908.6065881165337</v>
       </c>
       <c r="H4" t="n">
-        <v>908.6065881165338</v>
+        <v>908.6065881165334</v>
       </c>
       <c r="I4" t="n">
-        <v>908.6065881165338</v>
+        <v>908.6065881165334</v>
       </c>
       <c r="J4" t="n">
         <v>990.0314106635611</v>
@@ -26820,16 +26820,16 @@
         <v>971.5195294789634</v>
       </c>
       <c r="M4" t="n">
-        <v>908.6065881165335</v>
+        <v>908.6065881165337</v>
       </c>
       <c r="N4" t="n">
-        <v>908.6065881165337</v>
+        <v>908.6065881165339</v>
       </c>
       <c r="O4" t="n">
-        <v>908.6065881165337</v>
+        <v>908.6065881165339</v>
       </c>
       <c r="P4" t="n">
-        <v>908.6065881165337</v>
+        <v>908.6065881165338</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.48642225767284</v>
+        <v>61.48642225767288</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5666988861490374</v>
+        <v>0.5666988861490054</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.55265234703975</v>
+        <v>82.55265234703981</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5666988861490836</v>
+        <v>0.5666988861490765</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>18.51188118459776</v>
       </c>
       <c r="E4" t="n">
-        <v>864.4744157373052</v>
+        <v>864.4744157373051</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>107.0451137416582</v>
+        <v>107.0451137416585</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.48642225767284</v>
+        <v>61.48642225767288</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5666988861490374</v>
+        <v>0.5666988861490054</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>18.51188118459776</v>
       </c>
       <c r="M4" t="n">
-        <v>864.4744157373052</v>
+        <v>864.4744157373051</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>381.2557545470806</v>
@@ -27394,7 +27394,7 @@
         <v>389.6824463205042</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>338.8484382006936</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27433,13 +27433,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>348.6146048023395</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27467,10 +27467,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>78.33807299467017</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>183.9532240455045</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="4">
@@ -27543,25 +27543,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>126.5890508974449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>119.8007568283004</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6068813128088</v>
+        <v>139.0314613895673</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>389.6824463205042</v>
       </c>
       <c r="H5" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>250.719288992763</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>357.155447408783</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>135.825319297428</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27743,16 +27743,16 @@
         <v>74.5375429580123</v>
       </c>
       <c r="S6" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>204.1216209230018</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>70.16346899880048</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>157.4484796280452</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>202.3252982336507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7438733624829</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>193.5442607079387</v>
+        <v>171.5908715855566</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>62.03280804727645</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>126.5022723806477</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28062,16 +28062,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>208.01389916236</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W10" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="C11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="D11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="E11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="F11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="G11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="H11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="I11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="T11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="U11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="V11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="W11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="X11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="C13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="D13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="E13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="F13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="G13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="H13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="I13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="J13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="K13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="L13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="M13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="N13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="O13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="P13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="R13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="S13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="T13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="U13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="V13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="W13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="X13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.63292897551594</v>
+        <v>21.632928975516</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="C14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="D14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="E14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="F14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="G14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="H14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="I14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="T14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="U14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="V14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="W14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="X14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="C16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="D16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="E16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="F16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="G16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="H16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="I16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="J16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="K16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="L16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="M16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="N16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="O16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="P16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="R16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="S16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="T16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="U16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="V16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="W16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="X16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.63292897551594</v>
+        <v>21.63292897551592</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="C17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="D17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="E17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="F17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="G17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="H17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="I17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="T17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="U17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="V17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="W17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="X17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="Y17" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="C19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="D19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="E19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="F19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="G19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="H19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="I19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="J19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="K19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="L19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="M19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="N19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="O19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="P19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="R19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="S19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="T19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="U19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="V19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="W19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="X19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="Y19" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="C20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="D20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="E20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="F20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="G20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="H20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="I20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="T20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="U20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="V20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="W20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="X20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="Y20" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="C22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="D22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="E22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="F22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="G22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="H22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="I22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="J22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="K22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="L22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="M22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="N22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="O22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="P22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="R22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="S22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="T22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="U22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="V22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="W22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="X22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="Y22" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="C23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="D23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="E23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="F23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318938</v>
       </c>
       <c r="G23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="H23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="I23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.11935123318857</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="T23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="U23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="V23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="W23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="X23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="C25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="D25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="E25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="F25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="G25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="H25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="I25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="J25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="K25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="L25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="M25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="N25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="O25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="P25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="R25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="S25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="T25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="U25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="V25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="W25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="X25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318881</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="C26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="D26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="E26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="F26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="G26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="H26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="I26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="T26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="U26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="V26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="W26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="X26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="Y26" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="C28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="D28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="E28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="F28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="G28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="H28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="I28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="J28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="K28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="L28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="M28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="N28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="O28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="P28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="R28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="S28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="T28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="U28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="V28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="W28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="X28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.05312114382188</v>
+        <v>62.05312114382181</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="C32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="D32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="E32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="F32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="G32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="H32" t="n">
-        <v>83.11935123318878</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.205510860249149</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="T32" t="n">
-        <v>5.205510860250001</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="U32" t="n">
-        <v>83.11935123318878</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="W32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="X32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="Y32" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="C34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="D34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="E34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="F34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="G34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="H34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="I34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="J34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="K34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="L34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="M34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="N34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="O34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="P34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="R34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="S34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="T34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="U34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="V34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="W34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="X34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="C35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="D35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="E35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="F35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="G35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="H35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="I35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="T35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="U35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="V35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="W35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="X35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="Y35" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="C37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="D37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="E37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="F37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="G37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="H37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="I37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="J37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="K37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="L37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="M37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="N37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="O37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="P37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="R37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="S37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="T37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="U37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="V37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="W37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="X37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.11935123318878</v>
+        <v>83.11935123318879</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="C38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="D38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="E38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="F38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="G38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="H38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="I38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="T38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="U38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="V38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="W38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="X38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="Y38" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="C40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="D40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="E40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="F40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="G40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="H40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="I40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="J40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="K40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="L40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="M40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="N40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="O40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="P40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.11935123319074</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.1193512331897</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="R40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="S40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="T40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="U40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="V40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="W40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="X40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
       <c r="Y40" t="n">
-        <v>83.11935123318875</v>
+        <v>83.1193512331887</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="C41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="D41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="E41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="F41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="G41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="H41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="I41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="T41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="U41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="V41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="W41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="X41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="Y41" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="C43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="D43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="E43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="F43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="G43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="H43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="I43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="J43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="K43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="L43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="M43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="N43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="O43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="P43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="R43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="S43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="T43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="U43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="V43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="W43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="X43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
       <c r="Y43" t="n">
-        <v>83.11935123318879</v>
+        <v>83.11935123318877</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="C44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="D44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="E44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="F44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="G44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="H44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="I44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="T44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="U44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="V44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="W44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="X44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="C46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="D46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="E46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="F46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="G46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="H46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="I46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="J46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="K46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="L46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="M46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="N46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="O46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="P46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="R46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="S46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="T46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="U46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="V46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="W46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="X46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.11935123318882</v>
+        <v>83.11935123318878</v>
       </c>
     </row>
   </sheetData>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.599506650747321</v>
+        <v>2.599506650747322</v>
       </c>
       <c r="H32" t="n">
         <v>26.62219748696601</v>
@@ -33418,10 +33418,10 @@
         <v>100.2174801529362</v>
       </c>
       <c r="J32" t="n">
-        <v>220.6298775988656</v>
+        <v>220.6298775988657</v>
       </c>
       <c r="K32" t="n">
-        <v>330.6669941249998</v>
+        <v>330.6669941249999</v>
       </c>
       <c r="L32" t="n">
         <v>410.2216457878083</v>
@@ -33430,7 +33430,7 @@
         <v>456.4506221880359</v>
       </c>
       <c r="N32" t="n">
-        <v>463.8364704594717</v>
+        <v>463.8364704594719</v>
       </c>
       <c r="O32" t="n">
         <v>437.9876262011031</v>
@@ -33445,10 +33445,10 @@
         <v>163.2912596500066</v>
       </c>
       <c r="S32" t="n">
-        <v>59.23625780390464</v>
+        <v>59.23625780390465</v>
       </c>
       <c r="T32" t="n">
-        <v>11.3793403636464</v>
+        <v>11.37934036364641</v>
       </c>
       <c r="U32" t="n">
         <v>0.2079605320597857</v>
@@ -33494,43 +33494,43 @@
         <v>13.43276669037943</v>
       </c>
       <c r="I33" t="n">
-        <v>47.88702021774683</v>
+        <v>47.88702021774684</v>
       </c>
       <c r="J33" t="n">
-        <v>131.4056436319088</v>
+        <v>131.4056436319089</v>
       </c>
       <c r="K33" t="n">
-        <v>224.5931749499089</v>
+        <v>224.593174949909</v>
       </c>
       <c r="L33" t="n">
         <v>301.993240239434</v>
       </c>
       <c r="M33" t="n">
-        <v>352.4118672585011</v>
+        <v>352.4118672585012</v>
       </c>
       <c r="N33" t="n">
-        <v>361.7391607505948</v>
+        <v>361.7391607505949</v>
       </c>
       <c r="O33" t="n">
         <v>330.9206606053646</v>
       </c>
       <c r="P33" t="n">
-        <v>265.5930046165938</v>
+        <v>265.5930046165939</v>
       </c>
       <c r="Q33" t="n">
         <v>177.5418899894655</v>
       </c>
       <c r="R33" t="n">
-        <v>86.35524308311138</v>
+        <v>86.35524308311139</v>
       </c>
       <c r="S33" t="n">
-        <v>25.83458988817295</v>
+        <v>25.83458988817296</v>
       </c>
       <c r="T33" t="n">
-        <v>5.606136507020295</v>
+        <v>5.606136507020296</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09150386028868825</v>
+        <v>0.09150386028868826</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.166049192312682</v>
+        <v>1.166049192312683</v>
       </c>
       <c r="H34" t="n">
         <v>10.36723736438004</v>
@@ -33576,7 +33576,7 @@
         <v>35.06627934700322</v>
       </c>
       <c r="J34" t="n">
-        <v>82.43967789650664</v>
+        <v>82.43967789650665</v>
       </c>
       <c r="K34" t="n">
         <v>135.473715252328</v>
@@ -33585,7 +33585,7 @@
         <v>173.3597135552874</v>
       </c>
       <c r="M34" t="n">
-        <v>182.7835111186143</v>
+        <v>182.7835111186144</v>
       </c>
       <c r="N34" t="n">
         <v>178.4373277654491</v>
@@ -33597,13 +33597,13 @@
         <v>141.0283495866175</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.64071918538289</v>
+        <v>97.64071918538291</v>
       </c>
       <c r="R34" t="n">
-        <v>52.42981186525932</v>
+        <v>52.42981186525933</v>
       </c>
       <c r="S34" t="n">
-        <v>20.32105728784919</v>
+        <v>20.3210572878492</v>
       </c>
       <c r="T34" t="n">
         <v>4.982210185336005</v>
@@ -33658,37 +33658,37 @@
         <v>220.6298775988656</v>
       </c>
       <c r="K35" t="n">
-        <v>330.6669941249998</v>
+        <v>330.6669941249997</v>
       </c>
       <c r="L35" t="n">
-        <v>410.2216457878083</v>
+        <v>410.2216457878081</v>
       </c>
       <c r="M35" t="n">
-        <v>456.4506221880359</v>
+        <v>456.4506221880358</v>
       </c>
       <c r="N35" t="n">
         <v>463.8364704594717</v>
       </c>
       <c r="O35" t="n">
-        <v>437.9876262011031</v>
+        <v>437.987626201103</v>
       </c>
       <c r="P35" t="n">
-        <v>373.8123057607785</v>
+        <v>373.8123057607784</v>
       </c>
       <c r="Q35" t="n">
-        <v>280.71747383089</v>
+        <v>280.7174738308899</v>
       </c>
       <c r="R35" t="n">
-        <v>163.2912596500066</v>
+        <v>163.2912596500065</v>
       </c>
       <c r="S35" t="n">
-        <v>59.23625780390464</v>
+        <v>59.23625780390463</v>
       </c>
       <c r="T35" t="n">
         <v>11.3793403636464</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2079605320597857</v>
+        <v>0.2079605320597856</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.390858676388061</v>
+        <v>1.39085867638806</v>
       </c>
       <c r="H36" t="n">
         <v>13.43276669037943</v>
       </c>
       <c r="I36" t="n">
-        <v>47.88702021774683</v>
+        <v>47.88702021774682</v>
       </c>
       <c r="J36" t="n">
         <v>131.4056436319088</v>
@@ -33740,34 +33740,34 @@
         <v>224.5931749499089</v>
       </c>
       <c r="L36" t="n">
-        <v>301.993240239434</v>
+        <v>301.9932402394339</v>
       </c>
       <c r="M36" t="n">
-        <v>352.4118672585011</v>
+        <v>352.411867258501</v>
       </c>
       <c r="N36" t="n">
-        <v>361.7391607505948</v>
+        <v>361.7391607505947</v>
       </c>
       <c r="O36" t="n">
-        <v>330.9206606053646</v>
+        <v>330.9206606053645</v>
       </c>
       <c r="P36" t="n">
         <v>265.5930046165938</v>
       </c>
       <c r="Q36" t="n">
-        <v>177.5418899894655</v>
+        <v>177.5418899894654</v>
       </c>
       <c r="R36" t="n">
-        <v>86.35524308311138</v>
+        <v>86.35524308311136</v>
       </c>
       <c r="S36" t="n">
         <v>25.83458988817295</v>
       </c>
       <c r="T36" t="n">
-        <v>5.606136507020295</v>
+        <v>5.606136507020294</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09150386028868825</v>
+        <v>0.09150386028868822</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>1.166049192312682</v>
       </c>
       <c r="H37" t="n">
-        <v>10.36723736438004</v>
+        <v>10.36723736438003</v>
       </c>
       <c r="I37" t="n">
         <v>35.06627934700322</v>
       </c>
       <c r="J37" t="n">
-        <v>82.43967789650664</v>
+        <v>82.43967789650662</v>
       </c>
       <c r="K37" t="n">
-        <v>135.473715252328</v>
+        <v>135.4737152523279</v>
       </c>
       <c r="L37" t="n">
-        <v>173.3597135552874</v>
+        <v>173.3597135552873</v>
       </c>
       <c r="M37" t="n">
         <v>182.7835111186143</v>
       </c>
       <c r="N37" t="n">
-        <v>178.4373277654491</v>
+        <v>178.437327765449</v>
       </c>
       <c r="O37" t="n">
-        <v>164.8157531097963</v>
+        <v>164.8157531097962</v>
       </c>
       <c r="P37" t="n">
-        <v>141.0283495866175</v>
+        <v>141.0283495866174</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.64071918538289</v>
+        <v>97.64071918538286</v>
       </c>
       <c r="R37" t="n">
-        <v>52.42981186525932</v>
+        <v>52.42981186525931</v>
       </c>
       <c r="S37" t="n">
         <v>20.32105728784919</v>
       </c>
       <c r="T37" t="n">
-        <v>4.982210185336005</v>
+        <v>4.982210185336004</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06360268321705548</v>
+        <v>0.06360268321705546</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.599506650747321</v>
+        <v>2.599506650747322</v>
       </c>
       <c r="H38" t="n">
         <v>26.62219748696601</v>
@@ -33892,10 +33892,10 @@
         <v>100.2174801529362</v>
       </c>
       <c r="J38" t="n">
-        <v>220.6298775988656</v>
+        <v>220.6298775988657</v>
       </c>
       <c r="K38" t="n">
-        <v>330.6669941249998</v>
+        <v>330.6669941249999</v>
       </c>
       <c r="L38" t="n">
         <v>410.2216457878083</v>
@@ -33904,7 +33904,7 @@
         <v>456.4506221880359</v>
       </c>
       <c r="N38" t="n">
-        <v>463.8364704594717</v>
+        <v>463.8364704594719</v>
       </c>
       <c r="O38" t="n">
         <v>437.9876262011031</v>
@@ -33919,10 +33919,10 @@
         <v>163.2912596500066</v>
       </c>
       <c r="S38" t="n">
-        <v>59.23625780390464</v>
+        <v>59.23625780390465</v>
       </c>
       <c r="T38" t="n">
-        <v>11.3793403636464</v>
+        <v>11.37934036364641</v>
       </c>
       <c r="U38" t="n">
         <v>0.2079605320597857</v>
@@ -33968,43 +33968,43 @@
         <v>13.43276669037943</v>
       </c>
       <c r="I39" t="n">
-        <v>47.88702021774683</v>
+        <v>47.88702021774684</v>
       </c>
       <c r="J39" t="n">
-        <v>131.4056436319088</v>
+        <v>131.4056436319089</v>
       </c>
       <c r="K39" t="n">
-        <v>224.5931749499089</v>
+        <v>224.593174949909</v>
       </c>
       <c r="L39" t="n">
         <v>301.993240239434</v>
       </c>
       <c r="M39" t="n">
-        <v>352.4118672585011</v>
+        <v>352.4118672585012</v>
       </c>
       <c r="N39" t="n">
-        <v>361.7391607505948</v>
+        <v>361.7391607505949</v>
       </c>
       <c r="O39" t="n">
         <v>330.9206606053646</v>
       </c>
       <c r="P39" t="n">
-        <v>265.5930046165938</v>
+        <v>265.5930046165939</v>
       </c>
       <c r="Q39" t="n">
         <v>177.5418899894655</v>
       </c>
       <c r="R39" t="n">
-        <v>86.35524308311138</v>
+        <v>86.35524308311139</v>
       </c>
       <c r="S39" t="n">
-        <v>25.83458988817295</v>
+        <v>25.83458988817296</v>
       </c>
       <c r="T39" t="n">
-        <v>5.606136507020295</v>
+        <v>5.606136507020296</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09150386028868825</v>
+        <v>0.09150386028868826</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.166049192312682</v>
+        <v>1.166049192312683</v>
       </c>
       <c r="H40" t="n">
         <v>10.36723736438004</v>
@@ -34050,7 +34050,7 @@
         <v>35.06627934700322</v>
       </c>
       <c r="J40" t="n">
-        <v>82.43967789650664</v>
+        <v>82.43967789650665</v>
       </c>
       <c r="K40" t="n">
         <v>135.473715252328</v>
@@ -34059,7 +34059,7 @@
         <v>173.3597135552874</v>
       </c>
       <c r="M40" t="n">
-        <v>182.7835111186143</v>
+        <v>182.7835111186144</v>
       </c>
       <c r="N40" t="n">
         <v>178.4373277654491</v>
@@ -34071,13 +34071,13 @@
         <v>141.0283495866175</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.64071918538289</v>
+        <v>97.64071918538291</v>
       </c>
       <c r="R40" t="n">
-        <v>52.42981186525932</v>
+        <v>52.42981186525933</v>
       </c>
       <c r="S40" t="n">
-        <v>20.32105728784919</v>
+        <v>20.3210572878492</v>
       </c>
       <c r="T40" t="n">
         <v>4.982210185336005</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N2" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O3" t="n">
         <v>25.62029119463083</v>
@@ -34796,7 +34796,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="Q3" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>24.58512791403968</v>
       </c>
-      <c r="L5" t="n">
-        <v>25.62029119463083</v>
-      </c>
       <c r="M5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>24.58512791403968</v>
+      </c>
+      <c r="N6" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>25.62029119463083</v>
@@ -35033,7 +35033,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="Q6" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>42.34905430330016</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.58397307217936</v>
+        <v>208.6805882442531</v>
       </c>
       <c r="K11" t="n">
         <v>434.722555651184</v>
@@ -35416,7 +35416,7 @@
         <v>592.1164453682715</v>
       </c>
       <c r="M11" t="n">
-        <v>675.6179224535956</v>
+        <v>353.2085240855679</v>
       </c>
       <c r="N11" t="n">
         <v>671.7703312748649</v>
@@ -35428,10 +35428,10 @@
         <v>464.3780181769916</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.8361331292486</v>
+        <v>270.7267746163452</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>13.42214170885688</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>130.659052305651</v>
+        <v>4.568016965242151</v>
       </c>
       <c r="K12" t="n">
-        <v>351.2169729881285</v>
+        <v>86.75173597554993</v>
       </c>
       <c r="L12" t="n">
         <v>534.279205763019</v>
       </c>
       <c r="M12" t="n">
-        <v>210.2778333364828</v>
+        <v>675.9828970864827</v>
       </c>
       <c r="N12" t="n">
-        <v>230.3974486672615</v>
+        <v>540.335915442928</v>
       </c>
       <c r="O12" t="n">
-        <v>438.7339372345423</v>
+        <v>582.1867354376496</v>
       </c>
       <c r="P12" t="n">
-        <v>450.0813658422007</v>
+        <v>131.6185972022636</v>
       </c>
       <c r="Q12" t="n">
-        <v>247.637403639293</v>
+        <v>37.56011590344394</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.7134267553498</v>
+        <v>10.71342675534986</v>
       </c>
       <c r="K13" t="n">
-        <v>134.837152401961</v>
+        <v>134.8371524019611</v>
       </c>
       <c r="L13" t="n">
-        <v>222.5826677911194</v>
+        <v>222.5826677911195</v>
       </c>
       <c r="M13" t="n">
         <v>244.0003170559709</v>
@@ -35586,7 +35586,7 @@
         <v>159.9398378270269</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.11160490920444</v>
+        <v>33.11160490920452</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>592.1164453682715</v>
       </c>
       <c r="M14" t="n">
-        <v>366.6306657944253</v>
+        <v>353.2085240855679</v>
       </c>
       <c r="N14" t="n">
         <v>671.7703312748649</v>
@@ -35668,7 +35668,7 @@
         <v>270.7267746163452</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>13.42214170885688</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>534.279205763019</v>
       </c>
       <c r="M15" t="n">
-        <v>210.2778333364828</v>
+        <v>460.6873544101049</v>
       </c>
       <c r="N15" t="n">
         <v>230.3974486672615</v>
       </c>
       <c r="O15" t="n">
-        <v>438.7339372345423</v>
+        <v>188.3244161609201</v>
       </c>
       <c r="P15" t="n">
         <v>450.0813658422007</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.7134267553498</v>
+        <v>10.71342675534979</v>
       </c>
       <c r="K16" t="n">
         <v>134.837152401961</v>
@@ -35820,10 +35820,10 @@
         <v>211.0338099993519</v>
       </c>
       <c r="P16" t="n">
-        <v>159.9398378270269</v>
+        <v>159.9398378270268</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.11160490920444</v>
+        <v>33.11160490920443</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>39.58397307217936</v>
+        <v>208.6805882442531</v>
       </c>
       <c r="K17" t="n">
-        <v>294.8319141640875</v>
+        <v>434.722555651184</v>
       </c>
       <c r="L17" t="n">
         <v>592.1164453682715</v>
@@ -35896,7 +35896,7 @@
         <v>671.7703312748649</v>
       </c>
       <c r="O17" t="n">
-        <v>588.6895960421617</v>
+        <v>266.2801976741339</v>
       </c>
       <c r="P17" t="n">
         <v>464.3780181769916</v>
@@ -35905,7 +35905,7 @@
         <v>270.7267746163452</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>13.42214170885688</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>130.659052305651</v>
+        <v>4.568016965242151</v>
       </c>
       <c r="K18" t="n">
-        <v>351.2169729881285</v>
+        <v>333.8552101254302</v>
       </c>
       <c r="L18" t="n">
         <v>534.279205763019</v>
@@ -35972,7 +35972,7 @@
         <v>210.2778333364828</v>
       </c>
       <c r="N18" t="n">
-        <v>297.0219382000034</v>
+        <v>230.3974486672615</v>
       </c>
       <c r="O18" t="n">
         <v>582.1867354376496</v>
@@ -35981,7 +35981,7 @@
         <v>450.0813658422007</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.56011590344394</v>
+        <v>247.637403639293</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>72.19984901302264</v>
+        <v>72.19984901302267</v>
       </c>
       <c r="K19" t="n">
         <v>196.3235746596339</v>
@@ -36051,7 +36051,7 @@
         <v>305.4867393136437</v>
       </c>
       <c r="N19" t="n">
-        <v>305.6888513778664</v>
+        <v>305.6888513778665</v>
       </c>
       <c r="O19" t="n">
         <v>272.5202322570248</v>
@@ -36060,7 +36060,7 @@
         <v>221.4262600846997</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.59802716687729</v>
+        <v>94.59802716687732</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>39.58397307217936</v>
+        <v>208.6805882442531</v>
       </c>
       <c r="K20" t="n">
         <v>434.722555651184</v>
@@ -36133,7 +36133,7 @@
         <v>671.7703312748649</v>
       </c>
       <c r="O20" t="n">
-        <v>448.798954555065</v>
+        <v>279.7023393829899</v>
       </c>
       <c r="P20" t="n">
         <v>464.3780181769916</v>
@@ -36203,19 +36203,19 @@
         <v>351.2169729881285</v>
       </c>
       <c r="L21" t="n">
-        <v>163.4388604595598</v>
+        <v>534.279205763019</v>
       </c>
       <c r="M21" t="n">
-        <v>675.9828970864827</v>
+        <v>210.2778333364828</v>
       </c>
       <c r="N21" t="n">
-        <v>704.4050199342803</v>
+        <v>230.3974486672615</v>
       </c>
       <c r="O21" t="n">
-        <v>188.3244161609201</v>
+        <v>438.7339372345423</v>
       </c>
       <c r="P21" t="n">
-        <v>131.6185972022636</v>
+        <v>450.0813658422007</v>
       </c>
       <c r="Q21" t="n">
         <v>247.637403639293</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.19984901302264</v>
+        <v>72.19984901302267</v>
       </c>
       <c r="K22" t="n">
         <v>196.3235746596339</v>
@@ -36288,7 +36288,7 @@
         <v>305.4867393136437</v>
       </c>
       <c r="N22" t="n">
-        <v>305.6888513778664</v>
+        <v>305.6888513778665</v>
       </c>
       <c r="O22" t="n">
         <v>272.5202322570248</v>
@@ -36297,7 +36297,7 @@
         <v>221.4262600846997</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.59802716687729</v>
+        <v>94.59802716687732</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.58397307217936</v>
+        <v>208.6805882442531</v>
       </c>
       <c r="K23" t="n">
         <v>434.722555651184</v>
@@ -36364,7 +36364,7 @@
         <v>592.1164453682715</v>
       </c>
       <c r="M23" t="n">
-        <v>522.3051392576421</v>
+        <v>675.6179224535956</v>
       </c>
       <c r="N23" t="n">
         <v>671.7703312748649</v>
@@ -36373,13 +36373,13 @@
         <v>588.6895960421617</v>
       </c>
       <c r="P23" t="n">
-        <v>464.3780181769916</v>
+        <v>367.7057521777245</v>
       </c>
       <c r="Q23" t="n">
-        <v>270.7267746163452</v>
+        <v>58.41178395644047</v>
       </c>
       <c r="R23" t="n">
-        <v>13.42214170885688</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4.568016965242151</v>
+        <v>130.659052305651</v>
       </c>
       <c r="K24" t="n">
-        <v>86.75173597554993</v>
+        <v>351.2169729881285</v>
       </c>
       <c r="L24" t="n">
-        <v>525.7549038987485</v>
+        <v>534.279205763019</v>
       </c>
       <c r="M24" t="n">
-        <v>675.9828970864827</v>
+        <v>210.2778333364828</v>
       </c>
       <c r="N24" t="n">
         <v>230.3974486672615</v>
@@ -36452,10 +36452,10 @@
         <v>582.1867354376496</v>
       </c>
       <c r="P24" t="n">
-        <v>450.0813658422007</v>
+        <v>306.6285676390933</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.56011590344394</v>
+        <v>247.637403639293</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.19984901302264</v>
+        <v>72.19984901302267</v>
       </c>
       <c r="K25" t="n">
         <v>196.3235746596339</v>
@@ -36525,7 +36525,7 @@
         <v>305.4867393136437</v>
       </c>
       <c r="N25" t="n">
-        <v>305.6888513778664</v>
+        <v>305.6888513778665</v>
       </c>
       <c r="O25" t="n">
         <v>272.5202322570248</v>
@@ -36534,7 +36534,7 @@
         <v>221.4262600846997</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.59802716687729</v>
+        <v>94.59802716687732</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>434.722555651184</v>
       </c>
       <c r="L26" t="n">
-        <v>592.1164453682717</v>
+        <v>592.1164453682715</v>
       </c>
       <c r="M26" t="n">
         <v>675.6179224535956</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>51.13361892365574</v>
+        <v>51.13361892365567</v>
       </c>
       <c r="K28" t="n">
-        <v>175.257344570267</v>
+        <v>175.2573445702669</v>
       </c>
       <c r="L28" t="n">
         <v>263.0028599594253</v>
@@ -36762,7 +36762,7 @@
         <v>284.4205092242768</v>
       </c>
       <c r="N28" t="n">
-        <v>284.6226212884995</v>
+        <v>284.6226212884994</v>
       </c>
       <c r="O28" t="n">
         <v>251.4540021676578</v>
@@ -36771,7 +36771,7 @@
         <v>200.3600299953328</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.53179707751039</v>
+        <v>73.53179707751032</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>130.659052305651</v>
       </c>
       <c r="K30" t="n">
-        <v>351.2169729881285</v>
+        <v>162.0971383707141</v>
       </c>
       <c r="L30" t="n">
-        <v>534.279205763019</v>
+        <v>163.4388604595598</v>
       </c>
       <c r="M30" t="n">
-        <v>460.6873544101054</v>
+        <v>675.9828970864827</v>
       </c>
       <c r="N30" t="n">
-        <v>230.3974486672615</v>
+        <v>709.739823010815</v>
       </c>
       <c r="O30" t="n">
-        <v>188.3244161609201</v>
+        <v>582.1867354376496</v>
       </c>
       <c r="P30" t="n">
-        <v>450.0813658422007</v>
+        <v>131.6185972022636</v>
       </c>
       <c r="Q30" t="n">
-        <v>247.637403639293</v>
+        <v>37.56011590344394</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>175.257344570267</v>
       </c>
       <c r="L31" t="n">
-        <v>263.0028599594253</v>
+        <v>263.0028599594254</v>
       </c>
       <c r="M31" t="n">
         <v>284.4205092242768</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>208.6805882442531</v>
+        <v>148.8031600100561</v>
       </c>
       <c r="K32" t="n">
-        <v>434.722555651184</v>
+        <v>434.7225556511841</v>
       </c>
       <c r="L32" t="n">
-        <v>592.1164453682715</v>
+        <v>592.1164453682716</v>
       </c>
       <c r="M32" t="n">
-        <v>675.6179224535956</v>
+        <v>675.6179224535957</v>
       </c>
       <c r="N32" t="n">
-        <v>671.7703312748649</v>
+        <v>671.7703312748652</v>
       </c>
       <c r="O32" t="n">
-        <v>528.812167807965</v>
+        <v>588.6895960421617</v>
       </c>
       <c r="P32" t="n">
         <v>464.3780181769916</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.568016965242151</v>
+        <v>4.56801696524218</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8552101254306</v>
+        <v>86.75173597554996</v>
       </c>
       <c r="L33" t="n">
-        <v>534.279205763019</v>
+        <v>364.875298195132</v>
       </c>
       <c r="M33" t="n">
-        <v>210.2778333364828</v>
+        <v>675.9828970864828</v>
       </c>
       <c r="N33" t="n">
-        <v>230.3974486672615</v>
+        <v>709.7398230108151</v>
       </c>
       <c r="O33" t="n">
-        <v>582.1867354376496</v>
+        <v>582.1867354376498</v>
       </c>
       <c r="P33" t="n">
-        <v>450.0813658422007</v>
+        <v>131.6185972022636</v>
       </c>
       <c r="Q33" t="n">
-        <v>247.637403639293</v>
+        <v>37.56011590344397</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.19984901302264</v>
+        <v>72.19984901302267</v>
       </c>
       <c r="K34" t="n">
         <v>196.3235746596339</v>
@@ -37236,16 +37236,16 @@
         <v>305.4867393136437</v>
       </c>
       <c r="N34" t="n">
-        <v>305.6888513778664</v>
+        <v>305.6888513778665</v>
       </c>
       <c r="O34" t="n">
         <v>272.5202322570248</v>
       </c>
       <c r="P34" t="n">
-        <v>221.4262600846997</v>
+        <v>221.4262600846998</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.59802716687729</v>
+        <v>94.59802716687732</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>39.58397307217936</v>
+        <v>208.6805882442531</v>
       </c>
       <c r="K35" t="n">
-        <v>434.722555651184</v>
+        <v>434.7225556511839</v>
       </c>
       <c r="L35" t="n">
-        <v>592.1164453682715</v>
+        <v>592.1164453682713</v>
       </c>
       <c r="M35" t="n">
         <v>675.6179224535956</v>
@@ -37318,16 +37318,16 @@
         <v>671.7703312748649</v>
       </c>
       <c r="O35" t="n">
-        <v>588.6895960421617</v>
+        <v>266.2801976741349</v>
       </c>
       <c r="P35" t="n">
-        <v>464.3780181769916</v>
+        <v>464.3780181769915</v>
       </c>
       <c r="Q35" t="n">
-        <v>130.8361331292477</v>
+        <v>270.7267746163451</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>13.42214170885686</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>4.568016965242151</v>
+        <v>130.659052305651</v>
       </c>
       <c r="K36" t="n">
         <v>351.2169729881285</v>
       </c>
       <c r="L36" t="n">
-        <v>534.279205763019</v>
+        <v>534.2792057630189</v>
       </c>
       <c r="M36" t="n">
-        <v>210.2778333364828</v>
+        <v>210.2778333364827</v>
       </c>
       <c r="N36" t="n">
-        <v>230.3974486672615</v>
+        <v>230.3974486672614</v>
       </c>
       <c r="O36" t="n">
-        <v>582.1867354376496</v>
+        <v>438.7339372345425</v>
       </c>
       <c r="P36" t="n">
-        <v>432.719602979502</v>
+        <v>450.0813658422007</v>
       </c>
       <c r="Q36" t="n">
         <v>247.637403639293</v>
@@ -37467,7 +37467,7 @@
         <v>196.3235746596339</v>
       </c>
       <c r="L37" t="n">
-        <v>284.0690900487923</v>
+        <v>284.0690900487922</v>
       </c>
       <c r="M37" t="n">
         <v>305.4867393136437</v>
@@ -37476,13 +37476,13 @@
         <v>305.6888513778664</v>
       </c>
       <c r="O37" t="n">
-        <v>272.5202322570248</v>
+        <v>272.5202322570247</v>
       </c>
       <c r="P37" t="n">
         <v>221.4262600846997</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.59802716687729</v>
+        <v>94.59802716687727</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>39.58397307217936</v>
+        <v>208.6805882442532</v>
       </c>
       <c r="K38" t="n">
-        <v>434.722555651184</v>
+        <v>434.7225556511841</v>
       </c>
       <c r="L38" t="n">
-        <v>592.1164453682715</v>
+        <v>592.1164453682716</v>
       </c>
       <c r="M38" t="n">
-        <v>675.6179224535956</v>
+        <v>675.6179224535957</v>
       </c>
       <c r="N38" t="n">
-        <v>671.7703312748649</v>
+        <v>671.7703312748652</v>
       </c>
       <c r="O38" t="n">
-        <v>588.6895960421617</v>
+        <v>279.7023393829909</v>
       </c>
       <c r="P38" t="n">
-        <v>324.4873766898942</v>
+        <v>464.3780181769916</v>
       </c>
       <c r="Q38" t="n">
         <v>270.7267746163452</v>
@@ -37631,16 +37631,16 @@
         <v>210.2778333364828</v>
       </c>
       <c r="N39" t="n">
-        <v>230.3974486672615</v>
+        <v>230.3974486672616</v>
       </c>
       <c r="O39" t="n">
-        <v>582.1867354376496</v>
+        <v>582.1867354376498</v>
       </c>
       <c r="P39" t="n">
         <v>306.6285676390933</v>
       </c>
       <c r="Q39" t="n">
-        <v>247.637403639293</v>
+        <v>247.6374036392931</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>72.19984901302261</v>
+        <v>72.19984901302257</v>
       </c>
       <c r="K40" t="n">
-        <v>196.3235746596339</v>
+        <v>196.3235746596338</v>
       </c>
       <c r="L40" t="n">
         <v>284.0690900487922</v>
       </c>
       <c r="M40" t="n">
-        <v>305.4867393136437</v>
+        <v>305.4867393136436</v>
       </c>
       <c r="N40" t="n">
         <v>305.6888513778664</v>
       </c>
       <c r="O40" t="n">
-        <v>272.5202322570247</v>
+        <v>272.5202322570246</v>
       </c>
       <c r="P40" t="n">
-        <v>221.4262600846997</v>
+        <v>221.4262600847017</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.59802716687821</v>
+        <v>94.59802716687722</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,19 +37789,19 @@
         <v>675.6179224535956</v>
       </c>
       <c r="N41" t="n">
-        <v>671.7703312748649</v>
+        <v>362.783074615695</v>
       </c>
       <c r="O41" t="n">
         <v>588.6895960421617</v>
       </c>
       <c r="P41" t="n">
-        <v>354.2836104688684</v>
+        <v>464.3780181769916</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.41178395644047</v>
+        <v>270.7267746163452</v>
       </c>
       <c r="R41" t="n">
-        <v>13.42214170885688</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>4.568016965242151</v>
       </c>
       <c r="K42" t="n">
-        <v>86.75173597554993</v>
+        <v>351.2169729881285</v>
       </c>
       <c r="L42" t="n">
-        <v>163.4388604595598</v>
+        <v>534.279205763019</v>
       </c>
       <c r="M42" t="n">
-        <v>558.9565661821179</v>
+        <v>210.2778333364828</v>
       </c>
       <c r="N42" t="n">
-        <v>709.739823010815</v>
+        <v>230.3974486672615</v>
       </c>
       <c r="O42" t="n">
         <v>582.1867354376496</v>
@@ -37877,7 +37877,7 @@
         <v>450.0813658422007</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.56011590344394</v>
+        <v>230.2756407765945</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>72.19984901302266</v>
+        <v>72.19984901302263</v>
       </c>
       <c r="K43" t="n">
         <v>196.3235746596339</v>
       </c>
       <c r="L43" t="n">
-        <v>284.0690900487923</v>
+        <v>284.0690900487922</v>
       </c>
       <c r="M43" t="n">
         <v>305.4867393136437</v>
       </c>
       <c r="N43" t="n">
-        <v>305.6888513778665</v>
+        <v>305.6888513778664</v>
       </c>
       <c r="O43" t="n">
-        <v>272.5202322570248</v>
+        <v>272.5202322570247</v>
       </c>
       <c r="P43" t="n">
         <v>221.4262600846997</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.5980271668773</v>
+        <v>94.59802716687727</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,19 +38026,19 @@
         <v>675.6179224535956</v>
       </c>
       <c r="N44" t="n">
-        <v>362.783074615694</v>
+        <v>671.7703312748649</v>
       </c>
       <c r="O44" t="n">
         <v>588.6895960421617</v>
       </c>
       <c r="P44" t="n">
-        <v>464.3780181769916</v>
+        <v>142.5793100055089</v>
       </c>
       <c r="Q44" t="n">
-        <v>270.7267746163452</v>
+        <v>270.1160844198006</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>13.42214170885688</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>130.659052305651</v>
+        <v>4.568016965242151</v>
       </c>
       <c r="K45" t="n">
         <v>351.2169729881285</v>
@@ -38102,19 +38102,19 @@
         <v>534.279205763019</v>
       </c>
       <c r="M45" t="n">
-        <v>460.6873544101049</v>
+        <v>210.2778333364828</v>
       </c>
       <c r="N45" t="n">
         <v>230.3974486672615</v>
       </c>
       <c r="O45" t="n">
-        <v>188.3244161609201</v>
+        <v>582.1867354376496</v>
       </c>
       <c r="P45" t="n">
         <v>450.0813658422007</v>
       </c>
       <c r="Q45" t="n">
-        <v>247.637403639293</v>
+        <v>230.2756407765945</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.19984901302269</v>
+        <v>72.19984901302264</v>
       </c>
       <c r="K46" t="n">
         <v>196.3235746596339</v>
@@ -38184,16 +38184,16 @@
         <v>305.4867393136437</v>
       </c>
       <c r="N46" t="n">
-        <v>305.6888513778665</v>
+        <v>305.6888513778664</v>
       </c>
       <c r="O46" t="n">
         <v>272.5202322570248</v>
       </c>
       <c r="P46" t="n">
-        <v>221.4262600846998</v>
+        <v>221.4262600846997</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.59802716687733</v>
+        <v>94.59802716687729</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
